--- a/일정계획표.xlsx
+++ b/일정계획표.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\home\Documents\GitHub\FoodBot\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="90" windowWidth="22050" windowHeight="9270"/>
   </bookViews>
@@ -11,12 +16,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
   <si>
     <t>11금</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -134,15 +139,6 @@
   </si>
   <si>
     <t>검색 UI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">서버환경구축
-- 스프링 / 메이븐 /
-- 저장환경(weight)
-- mysql
-- 디렉토리 환경
-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -198,20 +194,217 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TRAIN DATA 수정
-(맛 설정, 양념 -&gt; 직렬화)
-이상형월드컵 사진 수집</t>
+    <r>
+      <t xml:space="preserve">서버환경구축
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>스프링 / 메이븐 /</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- 저장환경(weight)
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mysql</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>디렉토리 환경</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">서버환경구축
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>스프링 / 메이븐 /</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- 저장환경(weight)
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mysql</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>디렉토리 환경</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TRAIN DATA 수정
+(맛 설정, 양념 -&gt; 직렬화)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>이상형월드컵 사진 수집</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -254,6 +447,22 @@
     <font>
       <sz val="72"/>
       <color rgb="FFFFFF00"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFFC000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -378,6 +587,33 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -406,33 +642,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -459,70 +668,70 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -562,6 +771,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -610,7 +822,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -642,9 +854,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -676,6 +906,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -851,240 +1099,240 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:T97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:E23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10:J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:20" ht="27" thickBot="1">
-      <c r="A2" s="40" t="s">
+    <row r="2" spans="1:20" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="41" t="s">
+      <c r="F2" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
       <c r="J2" s="1"/>
-      <c r="K2" s="41" t="s">
+      <c r="K2" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
-      <c r="P2" s="41" t="s">
+      <c r="P2" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="41"/>
-      <c r="S2" s="41"/>
-    </row>
-    <row r="3" spans="1:20" ht="18" customHeight="1" thickTop="1">
-      <c r="A3" s="42" t="s">
+      <c r="Q2" s="51"/>
+      <c r="R2" s="51"/>
+      <c r="S2" s="51"/>
+    </row>
+    <row r="3" spans="1:20" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="31" t="s">
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="31" t="s">
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="42" t="s">
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="Q3" s="32"/>
-      <c r="R3" s="32"/>
-      <c r="S3" s="32"/>
-      <c r="T3" s="33"/>
-    </row>
-    <row r="4" spans="1:20" ht="17.45" customHeight="1">
-      <c r="A4" s="34"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="35"/>
-      <c r="R4" s="35"/>
-      <c r="S4" s="35"/>
-      <c r="T4" s="36"/>
-    </row>
-    <row r="5" spans="1:20" ht="17.45" customHeight="1">
-      <c r="A5" s="34"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="35"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="34"/>
-      <c r="Q5" s="35"/>
-      <c r="R5" s="35"/>
-      <c r="S5" s="35"/>
-      <c r="T5" s="36"/>
-    </row>
-    <row r="6" spans="1:20" ht="17.45" customHeight="1">
-      <c r="A6" s="34"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="35"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="34"/>
-      <c r="Q6" s="35"/>
-      <c r="R6" s="35"/>
-      <c r="S6" s="35"/>
-      <c r="T6" s="36"/>
-    </row>
-    <row r="7" spans="1:20" ht="17.45" customHeight="1">
-      <c r="A7" s="34"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="35"/>
-      <c r="N7" s="35"/>
-      <c r="O7" s="36"/>
-      <c r="P7" s="34"/>
-      <c r="Q7" s="35"/>
-      <c r="R7" s="35"/>
-      <c r="S7" s="35"/>
-      <c r="T7" s="36"/>
-    </row>
-    <row r="8" spans="1:20" ht="17.45" customHeight="1">
-      <c r="A8" s="34"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="35"/>
-      <c r="N8" s="35"/>
-      <c r="O8" s="36"/>
-      <c r="P8" s="34"/>
-      <c r="Q8" s="35"/>
-      <c r="R8" s="35"/>
-      <c r="S8" s="35"/>
-      <c r="T8" s="36"/>
-    </row>
-    <row r="9" spans="1:20" ht="17.45" customHeight="1" thickBot="1">
-      <c r="A9" s="37"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="38"/>
-      <c r="M9" s="38"/>
-      <c r="N9" s="38"/>
-      <c r="O9" s="39"/>
-      <c r="P9" s="37"/>
-      <c r="Q9" s="38"/>
-      <c r="R9" s="38"/>
-      <c r="S9" s="38"/>
-      <c r="T9" s="39"/>
-    </row>
-    <row r="10" spans="1:20" ht="15" customHeight="1" thickTop="1">
-      <c r="A10" s="30" t="s">
-        <v>40</v>
+      <c r="Q3" s="31"/>
+      <c r="R3" s="31"/>
+      <c r="S3" s="31"/>
+      <c r="T3" s="32"/>
+    </row>
+    <row r="4" spans="1:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="33"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="33"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="34"/>
+      <c r="S4" s="34"/>
+      <c r="T4" s="35"/>
+    </row>
+    <row r="5" spans="1:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="33"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="35"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="34"/>
+      <c r="R5" s="34"/>
+      <c r="S5" s="34"/>
+      <c r="T5" s="35"/>
+    </row>
+    <row r="6" spans="1:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="33"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="33"/>
+      <c r="Q6" s="34"/>
+      <c r="R6" s="34"/>
+      <c r="S6" s="34"/>
+      <c r="T6" s="35"/>
+    </row>
+    <row r="7" spans="1:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="33"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="35"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="34"/>
+      <c r="R7" s="34"/>
+      <c r="S7" s="34"/>
+      <c r="T7" s="35"/>
+    </row>
+    <row r="8" spans="1:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="33"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="35"/>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="34"/>
+      <c r="R8" s="34"/>
+      <c r="S8" s="34"/>
+      <c r="T8" s="35"/>
+    </row>
+    <row r="9" spans="1:20" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="36"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="37"/>
+      <c r="O9" s="38"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="37"/>
+      <c r="R9" s="37"/>
+      <c r="S9" s="37"/>
+      <c r="T9" s="38"/>
+    </row>
+    <row r="10" spans="1:20" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="48" t="s">
+        <v>41</v>
       </c>
       <c r="B10" s="22"/>
       <c r="C10" s="22"/>
       <c r="D10" s="22"/>
       <c r="E10" s="23"/>
-      <c r="F10" s="30" t="s">
-        <v>28</v>
+      <c r="F10" s="48" t="s">
+        <v>39</v>
       </c>
       <c r="G10" s="22"/>
       <c r="H10" s="22"/>
       <c r="I10" s="22"/>
       <c r="J10" s="23"/>
-      <c r="K10" s="30" t="s">
-        <v>28</v>
+      <c r="K10" s="48" t="s">
+        <v>40</v>
       </c>
       <c r="L10" s="22"/>
       <c r="M10" s="22"/>
       <c r="N10" s="22"/>
       <c r="O10" s="23"/>
-      <c r="P10" s="30" t="s">
-        <v>31</v>
+      <c r="P10" s="48" t="s">
+        <v>30</v>
       </c>
       <c r="Q10" s="22"/>
       <c r="R10" s="22"/>
       <c r="S10" s="22"/>
       <c r="T10" s="23"/>
     </row>
-    <row r="11" spans="1:20" ht="17.45" customHeight="1">
+    <row r="11" spans="1:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="24"/>
       <c r="B11" s="25"/>
       <c r="C11" s="25"/>
@@ -1106,7 +1354,7 @@
       <c r="S11" s="25"/>
       <c r="T11" s="26"/>
     </row>
-    <row r="12" spans="1:20" ht="17.45" customHeight="1">
+    <row r="12" spans="1:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="24"/>
       <c r="B12" s="25"/>
       <c r="C12" s="25"/>
@@ -1128,7 +1376,7 @@
       <c r="S12" s="25"/>
       <c r="T12" s="26"/>
     </row>
-    <row r="13" spans="1:20" ht="17.45" customHeight="1">
+    <row r="13" spans="1:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="24"/>
       <c r="B13" s="25"/>
       <c r="C13" s="25"/>
@@ -1150,7 +1398,7 @@
       <c r="S13" s="25"/>
       <c r="T13" s="26"/>
     </row>
-    <row r="14" spans="1:20" ht="17.45" customHeight="1">
+    <row r="14" spans="1:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="24"/>
       <c r="B14" s="25"/>
       <c r="C14" s="25"/>
@@ -1172,7 +1420,7 @@
       <c r="S14" s="25"/>
       <c r="T14" s="26"/>
     </row>
-    <row r="15" spans="1:20" ht="17.45" customHeight="1">
+    <row r="15" spans="1:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="24"/>
       <c r="B15" s="25"/>
       <c r="C15" s="25"/>
@@ -1194,7 +1442,7 @@
       <c r="S15" s="25"/>
       <c r="T15" s="26"/>
     </row>
-    <row r="16" spans="1:20" ht="22.15" customHeight="1" thickBot="1">
+    <row r="16" spans="1:20" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="27"/>
       <c r="B16" s="28"/>
       <c r="C16" s="28"/>
@@ -1216,7 +1464,7 @@
       <c r="S16" s="28"/>
       <c r="T16" s="29"/>
     </row>
-    <row r="17" spans="1:20" ht="17.45" customHeight="1" thickTop="1">
+    <row r="17" spans="1:20" ht="17.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A17" s="21" t="s">
         <v>16</v>
       </c>
@@ -1231,7 +1479,7 @@
       <c r="H17" s="22"/>
       <c r="I17" s="22"/>
       <c r="J17" s="23"/>
-      <c r="K17" s="30" t="s">
+      <c r="K17" s="48" t="s">
         <v>19</v>
       </c>
       <c r="L17" s="22"/>
@@ -1246,7 +1494,7 @@
       <c r="S17" s="22"/>
       <c r="T17" s="23"/>
     </row>
-    <row r="18" spans="1:20" ht="17.45" customHeight="1">
+    <row r="18" spans="1:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="24"/>
       <c r="B18" s="25"/>
       <c r="C18" s="25"/>
@@ -1268,7 +1516,7 @@
       <c r="S18" s="25"/>
       <c r="T18" s="26"/>
     </row>
-    <row r="19" spans="1:20" ht="17.45" customHeight="1">
+    <row r="19" spans="1:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="24"/>
       <c r="B19" s="25"/>
       <c r="C19" s="25"/>
@@ -1290,7 +1538,7 @@
       <c r="S19" s="25"/>
       <c r="T19" s="26"/>
     </row>
-    <row r="20" spans="1:20" ht="17.45" customHeight="1">
+    <row r="20" spans="1:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="24"/>
       <c r="B20" s="25"/>
       <c r="C20" s="25"/>
@@ -1312,7 +1560,7 @@
       <c r="S20" s="25"/>
       <c r="T20" s="26"/>
     </row>
-    <row r="21" spans="1:20" ht="17.45" customHeight="1">
+    <row r="21" spans="1:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="24"/>
       <c r="B21" s="25"/>
       <c r="C21" s="25"/>
@@ -1334,7 +1582,7 @@
       <c r="S21" s="25"/>
       <c r="T21" s="26"/>
     </row>
-    <row r="22" spans="1:20" ht="17.45" customHeight="1">
+    <row r="22" spans="1:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="24"/>
       <c r="B22" s="25"/>
       <c r="C22" s="25"/>
@@ -1356,7 +1604,7 @@
       <c r="S22" s="25"/>
       <c r="T22" s="26"/>
     </row>
-    <row r="23" spans="1:20" ht="17.45" customHeight="1" thickBot="1">
+    <row r="23" spans="1:20" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="27"/>
       <c r="B23" s="28"/>
       <c r="C23" s="28"/>
@@ -1378,7 +1626,7 @@
       <c r="S23" s="28"/>
       <c r="T23" s="29"/>
     </row>
-    <row r="24" spans="1:20" ht="18" customHeight="1" thickTop="1">
+    <row r="24" spans="1:20" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -1400,7 +1648,7 @@
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
     </row>
-    <row r="26" spans="1:20" ht="17.25" thickBot="1">
+    <row r="26" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -1414,199 +1662,199 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="17.25" thickTop="1">
-      <c r="A27" s="31" t="s">
+    <row r="27" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="31"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="L27" s="31"/>
+      <c r="M27" s="31"/>
+      <c r="N27" s="31"/>
+      <c r="O27" s="32"/>
+      <c r="P27" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="31" t="s">
+      <c r="Q27" s="31"/>
+      <c r="R27" s="31"/>
+      <c r="S27" s="31"/>
+      <c r="T27" s="32"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A28" s="33"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="33"/>
+      <c r="L28" s="34"/>
+      <c r="M28" s="34"/>
+      <c r="N28" s="34"/>
+      <c r="O28" s="35"/>
+      <c r="P28" s="33"/>
+      <c r="Q28" s="34"/>
+      <c r="R28" s="34"/>
+      <c r="S28" s="34"/>
+      <c r="T28" s="35"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A29" s="33"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="34"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="33"/>
+      <c r="L29" s="34"/>
+      <c r="M29" s="34"/>
+      <c r="N29" s="34"/>
+      <c r="O29" s="35"/>
+      <c r="P29" s="33"/>
+      <c r="Q29" s="34"/>
+      <c r="R29" s="34"/>
+      <c r="S29" s="34"/>
+      <c r="T29" s="35"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A30" s="33"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="34"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="33"/>
+      <c r="L30" s="34"/>
+      <c r="M30" s="34"/>
+      <c r="N30" s="34"/>
+      <c r="O30" s="35"/>
+      <c r="P30" s="33"/>
+      <c r="Q30" s="34"/>
+      <c r="R30" s="34"/>
+      <c r="S30" s="34"/>
+      <c r="T30" s="35"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A31" s="33"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="34"/>
+      <c r="J31" s="35"/>
+      <c r="K31" s="33"/>
+      <c r="L31" s="34"/>
+      <c r="M31" s="34"/>
+      <c r="N31" s="34"/>
+      <c r="O31" s="35"/>
+      <c r="P31" s="33"/>
+      <c r="Q31" s="34"/>
+      <c r="R31" s="34"/>
+      <c r="S31" s="34"/>
+      <c r="T31" s="35"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A32" s="33"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="34"/>
+      <c r="J32" s="35"/>
+      <c r="K32" s="33"/>
+      <c r="L32" s="34"/>
+      <c r="M32" s="34"/>
+      <c r="N32" s="34"/>
+      <c r="O32" s="35"/>
+      <c r="P32" s="33"/>
+      <c r="Q32" s="34"/>
+      <c r="R32" s="34"/>
+      <c r="S32" s="34"/>
+      <c r="T32" s="35"/>
+    </row>
+    <row r="33" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="36"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="37"/>
+      <c r="I33" s="37"/>
+      <c r="J33" s="38"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="37"/>
+      <c r="M33" s="37"/>
+      <c r="N33" s="37"/>
+      <c r="O33" s="38"/>
+      <c r="P33" s="36"/>
+      <c r="Q33" s="37"/>
+      <c r="R33" s="37"/>
+      <c r="S33" s="37"/>
+      <c r="T33" s="38"/>
+    </row>
+    <row r="34" spans="1:20" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="48" t="s">
         <v>33</v>
-      </c>
-      <c r="G27" s="32"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="32"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="L27" s="32"/>
-      <c r="M27" s="32"/>
-      <c r="N27" s="32"/>
-      <c r="O27" s="33"/>
-      <c r="P27" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q27" s="32"/>
-      <c r="R27" s="32"/>
-      <c r="S27" s="32"/>
-      <c r="T27" s="33"/>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" s="34"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="35"/>
-      <c r="J28" s="36"/>
-      <c r="K28" s="34"/>
-      <c r="L28" s="35"/>
-      <c r="M28" s="35"/>
-      <c r="N28" s="35"/>
-      <c r="O28" s="36"/>
-      <c r="P28" s="34"/>
-      <c r="Q28" s="35"/>
-      <c r="R28" s="35"/>
-      <c r="S28" s="35"/>
-      <c r="T28" s="36"/>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" s="34"/>
-      <c r="B29" s="35"/>
-      <c r="C29" s="35"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="35"/>
-      <c r="I29" s="35"/>
-      <c r="J29" s="36"/>
-      <c r="K29" s="34"/>
-      <c r="L29" s="35"/>
-      <c r="M29" s="35"/>
-      <c r="N29" s="35"/>
-      <c r="O29" s="36"/>
-      <c r="P29" s="34"/>
-      <c r="Q29" s="35"/>
-      <c r="R29" s="35"/>
-      <c r="S29" s="35"/>
-      <c r="T29" s="36"/>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" s="34"/>
-      <c r="B30" s="35"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="35"/>
-      <c r="J30" s="36"/>
-      <c r="K30" s="34"/>
-      <c r="L30" s="35"/>
-      <c r="M30" s="35"/>
-      <c r="N30" s="35"/>
-      <c r="O30" s="36"/>
-      <c r="P30" s="34"/>
-      <c r="Q30" s="35"/>
-      <c r="R30" s="35"/>
-      <c r="S30" s="35"/>
-      <c r="T30" s="36"/>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" s="34"/>
-      <c r="B31" s="35"/>
-      <c r="C31" s="35"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="35"/>
-      <c r="I31" s="35"/>
-      <c r="J31" s="36"/>
-      <c r="K31" s="34"/>
-      <c r="L31" s="35"/>
-      <c r="M31" s="35"/>
-      <c r="N31" s="35"/>
-      <c r="O31" s="36"/>
-      <c r="P31" s="34"/>
-      <c r="Q31" s="35"/>
-      <c r="R31" s="35"/>
-      <c r="S31" s="35"/>
-      <c r="T31" s="36"/>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" s="34"/>
-      <c r="B32" s="35"/>
-      <c r="C32" s="35"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="35"/>
-      <c r="I32" s="35"/>
-      <c r="J32" s="36"/>
-      <c r="K32" s="34"/>
-      <c r="L32" s="35"/>
-      <c r="M32" s="35"/>
-      <c r="N32" s="35"/>
-      <c r="O32" s="36"/>
-      <c r="P32" s="34"/>
-      <c r="Q32" s="35"/>
-      <c r="R32" s="35"/>
-      <c r="S32" s="35"/>
-      <c r="T32" s="36"/>
-    </row>
-    <row r="33" spans="1:20" ht="17.25" thickBot="1">
-      <c r="A33" s="37"/>
-      <c r="B33" s="38"/>
-      <c r="C33" s="38"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="37"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="38"/>
-      <c r="I33" s="38"/>
-      <c r="J33" s="39"/>
-      <c r="K33" s="37"/>
-      <c r="L33" s="38"/>
-      <c r="M33" s="38"/>
-      <c r="N33" s="38"/>
-      <c r="O33" s="39"/>
-      <c r="P33" s="37"/>
-      <c r="Q33" s="38"/>
-      <c r="R33" s="38"/>
-      <c r="S33" s="38"/>
-      <c r="T33" s="39"/>
-    </row>
-    <row r="34" spans="1:20" ht="18" customHeight="1" thickTop="1">
-      <c r="A34" s="30" t="s">
-        <v>34</v>
       </c>
       <c r="B34" s="22"/>
       <c r="C34" s="22"/>
       <c r="D34" s="22"/>
       <c r="E34" s="23"/>
       <c r="F34" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G34" s="22"/>
       <c r="H34" s="22"/>
       <c r="I34" s="22"/>
       <c r="J34" s="23"/>
       <c r="K34" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L34" s="22"/>
       <c r="M34" s="22"/>
       <c r="N34" s="22"/>
       <c r="O34" s="23"/>
-      <c r="P34" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q34" s="44"/>
-      <c r="R34" s="44"/>
-      <c r="S34" s="44"/>
-      <c r="T34" s="45"/>
-    </row>
-    <row r="35" spans="1:20" ht="17.45" customHeight="1">
+      <c r="P34" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q34" s="40"/>
+      <c r="R34" s="40"/>
+      <c r="S34" s="40"/>
+      <c r="T34" s="41"/>
+    </row>
+    <row r="35" spans="1:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="24"/>
       <c r="B35" s="25"/>
       <c r="C35" s="25"/>
@@ -1622,13 +1870,13 @@
       <c r="M35" s="25"/>
       <c r="N35" s="25"/>
       <c r="O35" s="26"/>
-      <c r="P35" s="46"/>
-      <c r="Q35" s="47"/>
-      <c r="R35" s="47"/>
-      <c r="S35" s="47"/>
-      <c r="T35" s="48"/>
-    </row>
-    <row r="36" spans="1:20" ht="17.45" customHeight="1">
+      <c r="P35" s="42"/>
+      <c r="Q35" s="43"/>
+      <c r="R35" s="43"/>
+      <c r="S35" s="43"/>
+      <c r="T35" s="44"/>
+    </row>
+    <row r="36" spans="1:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="24"/>
       <c r="B36" s="25"/>
       <c r="C36" s="25"/>
@@ -1644,13 +1892,13 @@
       <c r="M36" s="25"/>
       <c r="N36" s="25"/>
       <c r="O36" s="26"/>
-      <c r="P36" s="46"/>
-      <c r="Q36" s="47"/>
-      <c r="R36" s="47"/>
-      <c r="S36" s="47"/>
-      <c r="T36" s="48"/>
-    </row>
-    <row r="37" spans="1:20" ht="17.45" customHeight="1">
+      <c r="P36" s="42"/>
+      <c r="Q36" s="43"/>
+      <c r="R36" s="43"/>
+      <c r="S36" s="43"/>
+      <c r="T36" s="44"/>
+    </row>
+    <row r="37" spans="1:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="24"/>
       <c r="B37" s="25"/>
       <c r="C37" s="25"/>
@@ -1666,13 +1914,13 @@
       <c r="M37" s="25"/>
       <c r="N37" s="25"/>
       <c r="O37" s="26"/>
-      <c r="P37" s="46"/>
-      <c r="Q37" s="47"/>
-      <c r="R37" s="47"/>
-      <c r="S37" s="47"/>
-      <c r="T37" s="48"/>
-    </row>
-    <row r="38" spans="1:20" ht="17.45" customHeight="1">
+      <c r="P37" s="42"/>
+      <c r="Q37" s="43"/>
+      <c r="R37" s="43"/>
+      <c r="S37" s="43"/>
+      <c r="T37" s="44"/>
+    </row>
+    <row r="38" spans="1:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="24"/>
       <c r="B38" s="25"/>
       <c r="C38" s="25"/>
@@ -1688,13 +1936,13 @@
       <c r="M38" s="25"/>
       <c r="N38" s="25"/>
       <c r="O38" s="26"/>
-      <c r="P38" s="46"/>
-      <c r="Q38" s="47"/>
-      <c r="R38" s="47"/>
-      <c r="S38" s="47"/>
-      <c r="T38" s="48"/>
-    </row>
-    <row r="39" spans="1:20" ht="17.45" customHeight="1">
+      <c r="P38" s="42"/>
+      <c r="Q38" s="43"/>
+      <c r="R38" s="43"/>
+      <c r="S38" s="43"/>
+      <c r="T38" s="44"/>
+    </row>
+    <row r="39" spans="1:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="24"/>
       <c r="B39" s="25"/>
       <c r="C39" s="25"/>
@@ -1710,13 +1958,13 @@
       <c r="M39" s="25"/>
       <c r="N39" s="25"/>
       <c r="O39" s="26"/>
-      <c r="P39" s="46"/>
-      <c r="Q39" s="47"/>
-      <c r="R39" s="47"/>
-      <c r="S39" s="47"/>
-      <c r="T39" s="48"/>
-    </row>
-    <row r="40" spans="1:20" ht="18" customHeight="1" thickBot="1">
+      <c r="P39" s="42"/>
+      <c r="Q39" s="43"/>
+      <c r="R39" s="43"/>
+      <c r="S39" s="43"/>
+      <c r="T39" s="44"/>
+    </row>
+    <row r="40" spans="1:20" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="27"/>
       <c r="B40" s="28"/>
       <c r="C40" s="28"/>
@@ -1732,14 +1980,14 @@
       <c r="M40" s="28"/>
       <c r="N40" s="28"/>
       <c r="O40" s="29"/>
-      <c r="P40" s="49"/>
-      <c r="Q40" s="50"/>
-      <c r="R40" s="50"/>
-      <c r="S40" s="50"/>
-      <c r="T40" s="51"/>
-    </row>
-    <row r="41" spans="1:20" ht="17.25" thickTop="1">
-      <c r="A41" s="30" t="s">
+      <c r="P40" s="45"/>
+      <c r="Q40" s="46"/>
+      <c r="R40" s="46"/>
+      <c r="S40" s="46"/>
+      <c r="T40" s="47"/>
+    </row>
+    <row r="41" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="48" t="s">
         <v>26</v>
       </c>
       <c r="B41" s="22"/>
@@ -1760,7 +2008,7 @@
       <c r="M41" s="22"/>
       <c r="N41" s="22"/>
       <c r="O41" s="23"/>
-      <c r="P41" s="30" t="s">
+      <c r="P41" s="48" t="s">
         <v>25</v>
       </c>
       <c r="Q41" s="22"/>
@@ -1768,7 +2016,7 @@
       <c r="S41" s="22"/>
       <c r="T41" s="23"/>
     </row>
-    <row r="42" spans="1:20">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A42" s="24"/>
       <c r="B42" s="25"/>
       <c r="C42" s="25"/>
@@ -1790,7 +2038,7 @@
       <c r="S42" s="25"/>
       <c r="T42" s="26"/>
     </row>
-    <row r="43" spans="1:20">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A43" s="24"/>
       <c r="B43" s="25"/>
       <c r="C43" s="25"/>
@@ -1812,7 +2060,7 @@
       <c r="S43" s="25"/>
       <c r="T43" s="26"/>
     </row>
-    <row r="44" spans="1:20">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A44" s="24"/>
       <c r="B44" s="25"/>
       <c r="C44" s="25"/>
@@ -1834,7 +2082,7 @@
       <c r="S44" s="25"/>
       <c r="T44" s="26"/>
     </row>
-    <row r="45" spans="1:20">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A45" s="24"/>
       <c r="B45" s="25"/>
       <c r="C45" s="25"/>
@@ -1856,7 +2104,7 @@
       <c r="S45" s="25"/>
       <c r="T45" s="26"/>
     </row>
-    <row r="46" spans="1:20">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A46" s="24"/>
       <c r="B46" s="25"/>
       <c r="C46" s="25"/>
@@ -1878,7 +2126,7 @@
       <c r="S46" s="25"/>
       <c r="T46" s="26"/>
     </row>
-    <row r="47" spans="1:20" ht="17.25" thickBot="1">
+    <row r="47" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="27"/>
       <c r="B47" s="28"/>
       <c r="C47" s="28"/>
@@ -1900,8 +2148,8 @@
       <c r="S47" s="28"/>
       <c r="T47" s="29"/>
     </row>
-    <row r="48" spans="1:20" ht="17.25" thickTop="1"/>
-    <row r="51" spans="1:20" ht="17.25" thickBot="1">
+    <row r="48" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="51" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>7</v>
       </c>
@@ -1915,199 +2163,199 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:20" ht="17.25" thickTop="1">
-      <c r="A52" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="B52" s="32"/>
-      <c r="C52" s="32"/>
-      <c r="D52" s="32"/>
-      <c r="E52" s="33"/>
-      <c r="F52" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="G52" s="32"/>
-      <c r="H52" s="32"/>
-      <c r="I52" s="32"/>
-      <c r="J52" s="33"/>
-      <c r="K52" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="L52" s="32"/>
-      <c r="M52" s="32"/>
-      <c r="N52" s="32"/>
-      <c r="O52" s="33"/>
-      <c r="P52" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q52" s="32"/>
-      <c r="R52" s="32"/>
-      <c r="S52" s="32"/>
-      <c r="T52" s="33"/>
-    </row>
-    <row r="53" spans="1:20">
-      <c r="A53" s="34"/>
-      <c r="B53" s="35"/>
-      <c r="C53" s="35"/>
-      <c r="D53" s="35"/>
-      <c r="E53" s="36"/>
-      <c r="F53" s="34"/>
-      <c r="G53" s="35"/>
-      <c r="H53" s="35"/>
-      <c r="I53" s="35"/>
-      <c r="J53" s="36"/>
-      <c r="K53" s="34"/>
-      <c r="L53" s="35"/>
-      <c r="M53" s="35"/>
-      <c r="N53" s="35"/>
-      <c r="O53" s="36"/>
-      <c r="P53" s="34"/>
-      <c r="Q53" s="35"/>
-      <c r="R53" s="35"/>
-      <c r="S53" s="35"/>
-      <c r="T53" s="36"/>
-    </row>
-    <row r="54" spans="1:20">
-      <c r="A54" s="34"/>
-      <c r="B54" s="35"/>
-      <c r="C54" s="35"/>
-      <c r="D54" s="35"/>
-      <c r="E54" s="36"/>
-      <c r="F54" s="34"/>
-      <c r="G54" s="35"/>
-      <c r="H54" s="35"/>
-      <c r="I54" s="35"/>
-      <c r="J54" s="36"/>
-      <c r="K54" s="34"/>
-      <c r="L54" s="35"/>
-      <c r="M54" s="35"/>
-      <c r="N54" s="35"/>
-      <c r="O54" s="36"/>
-      <c r="P54" s="34"/>
-      <c r="Q54" s="35"/>
-      <c r="R54" s="35"/>
-      <c r="S54" s="35"/>
-      <c r="T54" s="36"/>
-    </row>
-    <row r="55" spans="1:20">
-      <c r="A55" s="34"/>
-      <c r="B55" s="35"/>
-      <c r="C55" s="35"/>
-      <c r="D55" s="35"/>
-      <c r="E55" s="36"/>
-      <c r="F55" s="34"/>
-      <c r="G55" s="35"/>
-      <c r="H55" s="35"/>
-      <c r="I55" s="35"/>
-      <c r="J55" s="36"/>
-      <c r="K55" s="34"/>
-      <c r="L55" s="35"/>
-      <c r="M55" s="35"/>
-      <c r="N55" s="35"/>
-      <c r="O55" s="36"/>
-      <c r="P55" s="34"/>
-      <c r="Q55" s="35"/>
-      <c r="R55" s="35"/>
-      <c r="S55" s="35"/>
-      <c r="T55" s="36"/>
-    </row>
-    <row r="56" spans="1:20">
-      <c r="A56" s="34"/>
-      <c r="B56" s="35"/>
-      <c r="C56" s="35"/>
-      <c r="D56" s="35"/>
-      <c r="E56" s="36"/>
-      <c r="F56" s="34"/>
-      <c r="G56" s="35"/>
-      <c r="H56" s="35"/>
-      <c r="I56" s="35"/>
-      <c r="J56" s="36"/>
-      <c r="K56" s="34"/>
-      <c r="L56" s="35"/>
-      <c r="M56" s="35"/>
-      <c r="N56" s="35"/>
-      <c r="O56" s="36"/>
-      <c r="P56" s="34"/>
-      <c r="Q56" s="35"/>
-      <c r="R56" s="35"/>
-      <c r="S56" s="35"/>
-      <c r="T56" s="36"/>
-    </row>
-    <row r="57" spans="1:20">
-      <c r="A57" s="34"/>
-      <c r="B57" s="35"/>
-      <c r="C57" s="35"/>
-      <c r="D57" s="35"/>
-      <c r="E57" s="36"/>
-      <c r="F57" s="34"/>
-      <c r="G57" s="35"/>
-      <c r="H57" s="35"/>
-      <c r="I57" s="35"/>
-      <c r="J57" s="36"/>
-      <c r="K57" s="34"/>
-      <c r="L57" s="35"/>
-      <c r="M57" s="35"/>
-      <c r="N57" s="35"/>
-      <c r="O57" s="36"/>
-      <c r="P57" s="34"/>
-      <c r="Q57" s="35"/>
-      <c r="R57" s="35"/>
-      <c r="S57" s="35"/>
-      <c r="T57" s="36"/>
-    </row>
-    <row r="58" spans="1:20" ht="17.25" thickBot="1">
-      <c r="A58" s="37"/>
-      <c r="B58" s="38"/>
-      <c r="C58" s="38"/>
-      <c r="D58" s="38"/>
-      <c r="E58" s="39"/>
-      <c r="F58" s="37"/>
-      <c r="G58" s="38"/>
-      <c r="H58" s="38"/>
-      <c r="I58" s="38"/>
-      <c r="J58" s="39"/>
-      <c r="K58" s="37"/>
-      <c r="L58" s="38"/>
-      <c r="M58" s="38"/>
-      <c r="N58" s="38"/>
-      <c r="O58" s="39"/>
-      <c r="P58" s="37"/>
-      <c r="Q58" s="38"/>
-      <c r="R58" s="38"/>
-      <c r="S58" s="38"/>
-      <c r="T58" s="39"/>
-    </row>
-    <row r="59" spans="1:20" ht="17.25" thickTop="1">
+    <row r="52" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B52" s="31"/>
+      <c r="C52" s="31"/>
+      <c r="D52" s="31"/>
+      <c r="E52" s="32"/>
+      <c r="F52" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="G52" s="31"/>
+      <c r="H52" s="31"/>
+      <c r="I52" s="31"/>
+      <c r="J52" s="32"/>
+      <c r="K52" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="L52" s="31"/>
+      <c r="M52" s="31"/>
+      <c r="N52" s="31"/>
+      <c r="O52" s="32"/>
+      <c r="P52" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q52" s="31"/>
+      <c r="R52" s="31"/>
+      <c r="S52" s="31"/>
+      <c r="T52" s="32"/>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A53" s="33"/>
+      <c r="B53" s="34"/>
+      <c r="C53" s="34"/>
+      <c r="D53" s="34"/>
+      <c r="E53" s="35"/>
+      <c r="F53" s="33"/>
+      <c r="G53" s="34"/>
+      <c r="H53" s="34"/>
+      <c r="I53" s="34"/>
+      <c r="J53" s="35"/>
+      <c r="K53" s="33"/>
+      <c r="L53" s="34"/>
+      <c r="M53" s="34"/>
+      <c r="N53" s="34"/>
+      <c r="O53" s="35"/>
+      <c r="P53" s="33"/>
+      <c r="Q53" s="34"/>
+      <c r="R53" s="34"/>
+      <c r="S53" s="34"/>
+      <c r="T53" s="35"/>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A54" s="33"/>
+      <c r="B54" s="34"/>
+      <c r="C54" s="34"/>
+      <c r="D54" s="34"/>
+      <c r="E54" s="35"/>
+      <c r="F54" s="33"/>
+      <c r="G54" s="34"/>
+      <c r="H54" s="34"/>
+      <c r="I54" s="34"/>
+      <c r="J54" s="35"/>
+      <c r="K54" s="33"/>
+      <c r="L54" s="34"/>
+      <c r="M54" s="34"/>
+      <c r="N54" s="34"/>
+      <c r="O54" s="35"/>
+      <c r="P54" s="33"/>
+      <c r="Q54" s="34"/>
+      <c r="R54" s="34"/>
+      <c r="S54" s="34"/>
+      <c r="T54" s="35"/>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A55" s="33"/>
+      <c r="B55" s="34"/>
+      <c r="C55" s="34"/>
+      <c r="D55" s="34"/>
+      <c r="E55" s="35"/>
+      <c r="F55" s="33"/>
+      <c r="G55" s="34"/>
+      <c r="H55" s="34"/>
+      <c r="I55" s="34"/>
+      <c r="J55" s="35"/>
+      <c r="K55" s="33"/>
+      <c r="L55" s="34"/>
+      <c r="M55" s="34"/>
+      <c r="N55" s="34"/>
+      <c r="O55" s="35"/>
+      <c r="P55" s="33"/>
+      <c r="Q55" s="34"/>
+      <c r="R55" s="34"/>
+      <c r="S55" s="34"/>
+      <c r="T55" s="35"/>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A56" s="33"/>
+      <c r="B56" s="34"/>
+      <c r="C56" s="34"/>
+      <c r="D56" s="34"/>
+      <c r="E56" s="35"/>
+      <c r="F56" s="33"/>
+      <c r="G56" s="34"/>
+      <c r="H56" s="34"/>
+      <c r="I56" s="34"/>
+      <c r="J56" s="35"/>
+      <c r="K56" s="33"/>
+      <c r="L56" s="34"/>
+      <c r="M56" s="34"/>
+      <c r="N56" s="34"/>
+      <c r="O56" s="35"/>
+      <c r="P56" s="33"/>
+      <c r="Q56" s="34"/>
+      <c r="R56" s="34"/>
+      <c r="S56" s="34"/>
+      <c r="T56" s="35"/>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A57" s="33"/>
+      <c r="B57" s="34"/>
+      <c r="C57" s="34"/>
+      <c r="D57" s="34"/>
+      <c r="E57" s="35"/>
+      <c r="F57" s="33"/>
+      <c r="G57" s="34"/>
+      <c r="H57" s="34"/>
+      <c r="I57" s="34"/>
+      <c r="J57" s="35"/>
+      <c r="K57" s="33"/>
+      <c r="L57" s="34"/>
+      <c r="M57" s="34"/>
+      <c r="N57" s="34"/>
+      <c r="O57" s="35"/>
+      <c r="P57" s="33"/>
+      <c r="Q57" s="34"/>
+      <c r="R57" s="34"/>
+      <c r="S57" s="34"/>
+      <c r="T57" s="35"/>
+    </row>
+    <row r="58" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="36"/>
+      <c r="B58" s="37"/>
+      <c r="C58" s="37"/>
+      <c r="D58" s="37"/>
+      <c r="E58" s="38"/>
+      <c r="F58" s="36"/>
+      <c r="G58" s="37"/>
+      <c r="H58" s="37"/>
+      <c r="I58" s="37"/>
+      <c r="J58" s="38"/>
+      <c r="K58" s="36"/>
+      <c r="L58" s="37"/>
+      <c r="M58" s="37"/>
+      <c r="N58" s="37"/>
+      <c r="O58" s="38"/>
+      <c r="P58" s="36"/>
+      <c r="Q58" s="37"/>
+      <c r="R58" s="37"/>
+      <c r="S58" s="37"/>
+      <c r="T58" s="38"/>
+    </row>
+    <row r="59" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A59" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B59" s="22"/>
       <c r="C59" s="22"/>
       <c r="D59" s="22"/>
       <c r="E59" s="23"/>
       <c r="F59" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G59" s="22"/>
       <c r="H59" s="22"/>
       <c r="I59" s="22"/>
       <c r="J59" s="23"/>
       <c r="K59" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L59" s="22"/>
       <c r="M59" s="22"/>
       <c r="N59" s="22"/>
       <c r="O59" s="23"/>
       <c r="P59" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q59" s="22"/>
       <c r="R59" s="22"/>
       <c r="S59" s="22"/>
       <c r="T59" s="23"/>
     </row>
-    <row r="60" spans="1:20">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A60" s="24"/>
       <c r="B60" s="25"/>
       <c r="C60" s="25"/>
@@ -2129,7 +2377,7 @@
       <c r="S60" s="25"/>
       <c r="T60" s="26"/>
     </row>
-    <row r="61" spans="1:20">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A61" s="24"/>
       <c r="B61" s="25"/>
       <c r="C61" s="25"/>
@@ -2151,7 +2399,7 @@
       <c r="S61" s="25"/>
       <c r="T61" s="26"/>
     </row>
-    <row r="62" spans="1:20">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A62" s="24"/>
       <c r="B62" s="25"/>
       <c r="C62" s="25"/>
@@ -2173,7 +2421,7 @@
       <c r="S62" s="25"/>
       <c r="T62" s="26"/>
     </row>
-    <row r="63" spans="1:20">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A63" s="24"/>
       <c r="B63" s="25"/>
       <c r="C63" s="25"/>
@@ -2195,7 +2443,7 @@
       <c r="S63" s="25"/>
       <c r="T63" s="26"/>
     </row>
-    <row r="64" spans="1:20">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A64" s="24"/>
       <c r="B64" s="25"/>
       <c r="C64" s="25"/>
@@ -2217,7 +2465,7 @@
       <c r="S64" s="25"/>
       <c r="T64" s="26"/>
     </row>
-    <row r="65" spans="1:20" ht="17.25" thickBot="1">
+    <row r="65" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="27"/>
       <c r="B65" s="28"/>
       <c r="C65" s="28"/>
@@ -2239,7 +2487,7 @@
       <c r="S65" s="28"/>
       <c r="T65" s="29"/>
     </row>
-    <row r="66" spans="1:20" ht="17.25" thickTop="1">
+    <row r="66" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A66" s="21" t="s">
         <v>27</v>
       </c>
@@ -2248,28 +2496,28 @@
       <c r="D66" s="22"/>
       <c r="E66" s="23"/>
       <c r="F66" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G66" s="22"/>
       <c r="H66" s="22"/>
       <c r="I66" s="22"/>
       <c r="J66" s="23"/>
       <c r="K66" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L66" s="22"/>
       <c r="M66" s="22"/>
       <c r="N66" s="22"/>
       <c r="O66" s="23"/>
       <c r="P66" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q66" s="22"/>
       <c r="R66" s="22"/>
       <c r="S66" s="22"/>
       <c r="T66" s="23"/>
     </row>
-    <row r="67" spans="1:20">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A67" s="24"/>
       <c r="B67" s="25"/>
       <c r="C67" s="25"/>
@@ -2291,7 +2539,7 @@
       <c r="S67" s="25"/>
       <c r="T67" s="26"/>
     </row>
-    <row r="68" spans="1:20">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A68" s="24"/>
       <c r="B68" s="25"/>
       <c r="C68" s="25"/>
@@ -2313,7 +2561,7 @@
       <c r="S68" s="25"/>
       <c r="T68" s="26"/>
     </row>
-    <row r="69" spans="1:20">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A69" s="24"/>
       <c r="B69" s="25"/>
       <c r="C69" s="25"/>
@@ -2335,7 +2583,7 @@
       <c r="S69" s="25"/>
       <c r="T69" s="26"/>
     </row>
-    <row r="70" spans="1:20">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A70" s="24"/>
       <c r="B70" s="25"/>
       <c r="C70" s="25"/>
@@ -2357,7 +2605,7 @@
       <c r="S70" s="25"/>
       <c r="T70" s="26"/>
     </row>
-    <row r="71" spans="1:20">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A71" s="24"/>
       <c r="B71" s="25"/>
       <c r="C71" s="25"/>
@@ -2379,7 +2627,7 @@
       <c r="S71" s="25"/>
       <c r="T71" s="26"/>
     </row>
-    <row r="72" spans="1:20" ht="17.25" thickBot="1">
+    <row r="72" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="27"/>
       <c r="B72" s="28"/>
       <c r="C72" s="28"/>
@@ -2401,8 +2649,8 @@
       <c r="S72" s="28"/>
       <c r="T72" s="29"/>
     </row>
-    <row r="73" spans="1:20" ht="17.25" thickTop="1"/>
-    <row r="75" spans="1:20" ht="17.25" thickBot="1">
+    <row r="73" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="75" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>11</v>
       </c>
@@ -2416,490 +2664,509 @@
         <v>25</v>
       </c>
     </row>
-    <row r="76" spans="1:20" ht="17.25" thickTop="1">
-      <c r="A76" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B76" s="4"/>
-      <c r="C76" s="4"/>
-      <c r="D76" s="4"/>
-      <c r="E76" s="5"/>
-      <c r="F76" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G76" s="4"/>
-      <c r="H76" s="4"/>
-      <c r="I76" s="4"/>
-      <c r="J76" s="5"/>
-      <c r="K76" s="3"/>
-      <c r="L76" s="4"/>
-      <c r="M76" s="4"/>
-      <c r="N76" s="4"/>
-      <c r="O76" s="5"/>
-      <c r="P76" s="3" t="s">
+    <row r="76" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B76" s="13"/>
+      <c r="C76" s="13"/>
+      <c r="D76" s="13"/>
+      <c r="E76" s="14"/>
+      <c r="F76" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G76" s="13"/>
+      <c r="H76" s="13"/>
+      <c r="I76" s="13"/>
+      <c r="J76" s="14"/>
+      <c r="K76" s="12"/>
+      <c r="L76" s="13"/>
+      <c r="M76" s="13"/>
+      <c r="N76" s="13"/>
+      <c r="O76" s="14"/>
+      <c r="P76" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="Q76" s="4"/>
-      <c r="R76" s="4"/>
-      <c r="S76" s="4"/>
-      <c r="T76" s="5"/>
-    </row>
-    <row r="77" spans="1:20">
-      <c r="A77" s="6"/>
-      <c r="B77" s="7"/>
-      <c r="C77" s="7"/>
-      <c r="D77" s="7"/>
-      <c r="E77" s="8"/>
-      <c r="F77" s="6"/>
-      <c r="G77" s="7"/>
-      <c r="H77" s="7"/>
-      <c r="I77" s="7"/>
-      <c r="J77" s="8"/>
-      <c r="K77" s="6"/>
-      <c r="L77" s="7"/>
-      <c r="M77" s="7"/>
-      <c r="N77" s="7"/>
-      <c r="O77" s="8"/>
-      <c r="P77" s="6"/>
-      <c r="Q77" s="7"/>
-      <c r="R77" s="7"/>
-      <c r="S77" s="7"/>
-      <c r="T77" s="8"/>
-    </row>
-    <row r="78" spans="1:20">
-      <c r="A78" s="6"/>
-      <c r="B78" s="7"/>
-      <c r="C78" s="7"/>
-      <c r="D78" s="7"/>
-      <c r="E78" s="8"/>
-      <c r="F78" s="6"/>
-      <c r="G78" s="7"/>
-      <c r="H78" s="7"/>
-      <c r="I78" s="7"/>
-      <c r="J78" s="8"/>
-      <c r="K78" s="6"/>
-      <c r="L78" s="7"/>
-      <c r="M78" s="7"/>
-      <c r="N78" s="7"/>
-      <c r="O78" s="8"/>
-      <c r="P78" s="6"/>
-      <c r="Q78" s="7"/>
-      <c r="R78" s="7"/>
-      <c r="S78" s="7"/>
-      <c r="T78" s="8"/>
-    </row>
-    <row r="79" spans="1:20">
-      <c r="A79" s="6"/>
-      <c r="B79" s="7"/>
-      <c r="C79" s="7"/>
-      <c r="D79" s="7"/>
-      <c r="E79" s="8"/>
-      <c r="F79" s="6"/>
-      <c r="G79" s="7"/>
-      <c r="H79" s="7"/>
-      <c r="I79" s="7"/>
-      <c r="J79" s="8"/>
-      <c r="K79" s="6"/>
-      <c r="L79" s="7"/>
-      <c r="M79" s="7"/>
-      <c r="N79" s="7"/>
-      <c r="O79" s="8"/>
-      <c r="P79" s="6"/>
-      <c r="Q79" s="7"/>
-      <c r="R79" s="7"/>
-      <c r="S79" s="7"/>
-      <c r="T79" s="8"/>
-    </row>
-    <row r="80" spans="1:20">
-      <c r="A80" s="6"/>
-      <c r="B80" s="7"/>
-      <c r="C80" s="7"/>
-      <c r="D80" s="7"/>
-      <c r="E80" s="8"/>
-      <c r="F80" s="6"/>
-      <c r="G80" s="7"/>
-      <c r="H80" s="7"/>
-      <c r="I80" s="7"/>
-      <c r="J80" s="8"/>
-      <c r="K80" s="6"/>
-      <c r="L80" s="7"/>
-      <c r="M80" s="7"/>
-      <c r="N80" s="7"/>
-      <c r="O80" s="8"/>
-      <c r="P80" s="6"/>
-      <c r="Q80" s="7"/>
-      <c r="R80" s="7"/>
-      <c r="S80" s="7"/>
-      <c r="T80" s="8"/>
-    </row>
-    <row r="81" spans="1:20">
-      <c r="A81" s="6"/>
-      <c r="B81" s="7"/>
-      <c r="C81" s="7"/>
-      <c r="D81" s="7"/>
-      <c r="E81" s="8"/>
-      <c r="F81" s="6"/>
-      <c r="G81" s="7"/>
-      <c r="H81" s="7"/>
-      <c r="I81" s="7"/>
-      <c r="J81" s="8"/>
-      <c r="K81" s="6"/>
-      <c r="L81" s="7"/>
-      <c r="M81" s="7"/>
-      <c r="N81" s="7"/>
-      <c r="O81" s="8"/>
-      <c r="P81" s="6"/>
-      <c r="Q81" s="7"/>
-      <c r="R81" s="7"/>
-      <c r="S81" s="7"/>
-      <c r="T81" s="8"/>
-    </row>
-    <row r="82" spans="1:20" ht="17.25" thickBot="1">
-      <c r="A82" s="9"/>
-      <c r="B82" s="10"/>
-      <c r="C82" s="10"/>
-      <c r="D82" s="10"/>
-      <c r="E82" s="11"/>
-      <c r="F82" s="9"/>
-      <c r="G82" s="10"/>
-      <c r="H82" s="10"/>
-      <c r="I82" s="10"/>
-      <c r="J82" s="11"/>
-      <c r="K82" s="9"/>
-      <c r="L82" s="10"/>
-      <c r="M82" s="10"/>
-      <c r="N82" s="10"/>
-      <c r="O82" s="11"/>
-      <c r="P82" s="9"/>
-      <c r="Q82" s="10"/>
-      <c r="R82" s="10"/>
-      <c r="S82" s="10"/>
-      <c r="T82" s="11"/>
-    </row>
-    <row r="83" spans="1:20" ht="17.25" thickTop="1">
-      <c r="A83" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B83" s="13"/>
-      <c r="C83" s="13"/>
-      <c r="D83" s="13"/>
-      <c r="E83" s="14"/>
-      <c r="F83" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="G83" s="13"/>
-      <c r="H83" s="13"/>
-      <c r="I83" s="13"/>
-      <c r="J83" s="14"/>
-      <c r="K83" s="12"/>
-      <c r="L83" s="13"/>
-      <c r="M83" s="13"/>
-      <c r="N83" s="13"/>
-      <c r="O83" s="14"/>
-      <c r="P83" s="12"/>
-      <c r="Q83" s="13"/>
-      <c r="R83" s="13"/>
-      <c r="S83" s="13"/>
-      <c r="T83" s="14"/>
-    </row>
-    <row r="84" spans="1:20">
-      <c r="A84" s="15"/>
-      <c r="B84" s="16"/>
-      <c r="C84" s="16"/>
-      <c r="D84" s="16"/>
-      <c r="E84" s="17"/>
-      <c r="F84" s="15"/>
-      <c r="G84" s="16"/>
-      <c r="H84" s="16"/>
-      <c r="I84" s="16"/>
-      <c r="J84" s="17"/>
-      <c r="K84" s="15"/>
-      <c r="L84" s="16"/>
-      <c r="M84" s="16"/>
-      <c r="N84" s="16"/>
-      <c r="O84" s="17"/>
-      <c r="P84" s="15"/>
-      <c r="Q84" s="16"/>
-      <c r="R84" s="16"/>
-      <c r="S84" s="16"/>
-      <c r="T84" s="17"/>
-    </row>
-    <row r="85" spans="1:20">
-      <c r="A85" s="15"/>
-      <c r="B85" s="16"/>
-      <c r="C85" s="16"/>
-      <c r="D85" s="16"/>
-      <c r="E85" s="17"/>
-      <c r="F85" s="15"/>
-      <c r="G85" s="16"/>
-      <c r="H85" s="16"/>
-      <c r="I85" s="16"/>
-      <c r="J85" s="17"/>
-      <c r="K85" s="15"/>
-      <c r="L85" s="16"/>
-      <c r="M85" s="16"/>
-      <c r="N85" s="16"/>
-      <c r="O85" s="17"/>
-      <c r="P85" s="15"/>
-      <c r="Q85" s="16"/>
-      <c r="R85" s="16"/>
-      <c r="S85" s="16"/>
-      <c r="T85" s="17"/>
-    </row>
-    <row r="86" spans="1:20">
-      <c r="A86" s="15"/>
-      <c r="B86" s="16"/>
-      <c r="C86" s="16"/>
-      <c r="D86" s="16"/>
-      <c r="E86" s="17"/>
-      <c r="F86" s="15"/>
-      <c r="G86" s="16"/>
-      <c r="H86" s="16"/>
-      <c r="I86" s="16"/>
-      <c r="J86" s="17"/>
-      <c r="K86" s="15"/>
-      <c r="L86" s="16"/>
-      <c r="M86" s="16"/>
-      <c r="N86" s="16"/>
-      <c r="O86" s="17"/>
-      <c r="P86" s="15"/>
-      <c r="Q86" s="16"/>
-      <c r="R86" s="16"/>
-      <c r="S86" s="16"/>
-      <c r="T86" s="17"/>
-    </row>
-    <row r="87" spans="1:20">
-      <c r="A87" s="15"/>
-      <c r="B87" s="16"/>
-      <c r="C87" s="16"/>
-      <c r="D87" s="16"/>
-      <c r="E87" s="17"/>
-      <c r="F87" s="15"/>
-      <c r="G87" s="16"/>
-      <c r="H87" s="16"/>
-      <c r="I87" s="16"/>
-      <c r="J87" s="17"/>
-      <c r="K87" s="15"/>
-      <c r="L87" s="16"/>
-      <c r="M87" s="16"/>
-      <c r="N87" s="16"/>
-      <c r="O87" s="17"/>
-      <c r="P87" s="15"/>
-      <c r="Q87" s="16"/>
-      <c r="R87" s="16"/>
-      <c r="S87" s="16"/>
-      <c r="T87" s="17"/>
-    </row>
-    <row r="88" spans="1:20">
-      <c r="A88" s="15"/>
-      <c r="B88" s="16"/>
-      <c r="C88" s="16"/>
-      <c r="D88" s="16"/>
-      <c r="E88" s="17"/>
-      <c r="F88" s="15"/>
-      <c r="G88" s="16"/>
-      <c r="H88" s="16"/>
-      <c r="I88" s="16"/>
-      <c r="J88" s="17"/>
-      <c r="K88" s="15"/>
-      <c r="L88" s="16"/>
-      <c r="M88" s="16"/>
-      <c r="N88" s="16"/>
-      <c r="O88" s="17"/>
-      <c r="P88" s="15"/>
-      <c r="Q88" s="16"/>
-      <c r="R88" s="16"/>
-      <c r="S88" s="16"/>
-      <c r="T88" s="17"/>
-    </row>
-    <row r="89" spans="1:20" ht="17.25" thickBot="1">
-      <c r="A89" s="18"/>
-      <c r="B89" s="19"/>
-      <c r="C89" s="19"/>
-      <c r="D89" s="19"/>
-      <c r="E89" s="20"/>
-      <c r="F89" s="18"/>
-      <c r="G89" s="19"/>
-      <c r="H89" s="19"/>
-      <c r="I89" s="19"/>
-      <c r="J89" s="20"/>
-      <c r="K89" s="18"/>
-      <c r="L89" s="19"/>
-      <c r="M89" s="19"/>
-      <c r="N89" s="19"/>
-      <c r="O89" s="20"/>
-      <c r="P89" s="18"/>
-      <c r="Q89" s="19"/>
-      <c r="R89" s="19"/>
-      <c r="S89" s="19"/>
-      <c r="T89" s="20"/>
-    </row>
-    <row r="90" spans="1:20" ht="17.25" thickTop="1">
-      <c r="A90" s="12"/>
-      <c r="B90" s="13"/>
-      <c r="C90" s="13"/>
-      <c r="D90" s="13"/>
-      <c r="E90" s="14"/>
-      <c r="F90" s="12"/>
-      <c r="G90" s="13"/>
-      <c r="H90" s="13"/>
-      <c r="I90" s="13"/>
-      <c r="J90" s="14"/>
-      <c r="K90" s="12"/>
-      <c r="L90" s="13"/>
-      <c r="M90" s="13"/>
-      <c r="N90" s="13"/>
-      <c r="O90" s="14"/>
-      <c r="P90" s="12"/>
-      <c r="Q90" s="13"/>
-      <c r="R90" s="13"/>
-      <c r="S90" s="13"/>
-      <c r="T90" s="14"/>
-    </row>
-    <row r="91" spans="1:20">
-      <c r="A91" s="15"/>
-      <c r="B91" s="16"/>
-      <c r="C91" s="16"/>
-      <c r="D91" s="16"/>
-      <c r="E91" s="17"/>
-      <c r="F91" s="15"/>
-      <c r="G91" s="16"/>
-      <c r="H91" s="16"/>
-      <c r="I91" s="16"/>
-      <c r="J91" s="17"/>
-      <c r="K91" s="15"/>
-      <c r="L91" s="16"/>
-      <c r="M91" s="16"/>
-      <c r="N91" s="16"/>
-      <c r="O91" s="17"/>
-      <c r="P91" s="15"/>
-      <c r="Q91" s="16"/>
-      <c r="R91" s="16"/>
-      <c r="S91" s="16"/>
-      <c r="T91" s="17"/>
-    </row>
-    <row r="92" spans="1:20">
-      <c r="A92" s="15"/>
-      <c r="B92" s="16"/>
-      <c r="C92" s="16"/>
-      <c r="D92" s="16"/>
-      <c r="E92" s="17"/>
-      <c r="F92" s="15"/>
-      <c r="G92" s="16"/>
-      <c r="H92" s="16"/>
-      <c r="I92" s="16"/>
-      <c r="J92" s="17"/>
-      <c r="K92" s="15"/>
-      <c r="L92" s="16"/>
-      <c r="M92" s="16"/>
-      <c r="N92" s="16"/>
-      <c r="O92" s="17"/>
-      <c r="P92" s="15"/>
-      <c r="Q92" s="16"/>
-      <c r="R92" s="16"/>
-      <c r="S92" s="16"/>
-      <c r="T92" s="17"/>
-    </row>
-    <row r="93" spans="1:20">
-      <c r="A93" s="15"/>
-      <c r="B93" s="16"/>
-      <c r="C93" s="16"/>
-      <c r="D93" s="16"/>
-      <c r="E93" s="17"/>
-      <c r="F93" s="15"/>
-      <c r="G93" s="16"/>
-      <c r="H93" s="16"/>
-      <c r="I93" s="16"/>
-      <c r="J93" s="17"/>
-      <c r="K93" s="15"/>
-      <c r="L93" s="16"/>
-      <c r="M93" s="16"/>
-      <c r="N93" s="16"/>
-      <c r="O93" s="17"/>
-      <c r="P93" s="15"/>
-      <c r="Q93" s="16"/>
-      <c r="R93" s="16"/>
-      <c r="S93" s="16"/>
-      <c r="T93" s="17"/>
-    </row>
-    <row r="94" spans="1:20">
-      <c r="A94" s="15"/>
-      <c r="B94" s="16"/>
-      <c r="C94" s="16"/>
-      <c r="D94" s="16"/>
-      <c r="E94" s="17"/>
-      <c r="F94" s="15"/>
-      <c r="G94" s="16"/>
-      <c r="H94" s="16"/>
-      <c r="I94" s="16"/>
-      <c r="J94" s="17"/>
-      <c r="K94" s="15"/>
-      <c r="L94" s="16"/>
-      <c r="M94" s="16"/>
-      <c r="N94" s="16"/>
-      <c r="O94" s="17"/>
-      <c r="P94" s="15"/>
-      <c r="Q94" s="16"/>
-      <c r="R94" s="16"/>
-      <c r="S94" s="16"/>
-      <c r="T94" s="17"/>
-    </row>
-    <row r="95" spans="1:20">
-      <c r="A95" s="15"/>
-      <c r="B95" s="16"/>
-      <c r="C95" s="16"/>
-      <c r="D95" s="16"/>
-      <c r="E95" s="17"/>
-      <c r="F95" s="15"/>
-      <c r="G95" s="16"/>
-      <c r="H95" s="16"/>
-      <c r="I95" s="16"/>
-      <c r="J95" s="17"/>
-      <c r="K95" s="15"/>
-      <c r="L95" s="16"/>
-      <c r="M95" s="16"/>
-      <c r="N95" s="16"/>
-      <c r="O95" s="17"/>
-      <c r="P95" s="15"/>
-      <c r="Q95" s="16"/>
-      <c r="R95" s="16"/>
-      <c r="S95" s="16"/>
-      <c r="T95" s="17"/>
-    </row>
-    <row r="96" spans="1:20" ht="17.25" thickBot="1">
-      <c r="A96" s="18"/>
-      <c r="B96" s="19"/>
-      <c r="C96" s="19"/>
-      <c r="D96" s="19"/>
-      <c r="E96" s="20"/>
-      <c r="F96" s="18"/>
-      <c r="G96" s="19"/>
-      <c r="H96" s="19"/>
-      <c r="I96" s="19"/>
-      <c r="J96" s="20"/>
-      <c r="K96" s="18"/>
-      <c r="L96" s="19"/>
-      <c r="M96" s="19"/>
-      <c r="N96" s="19"/>
-      <c r="O96" s="20"/>
-      <c r="P96" s="18"/>
-      <c r="Q96" s="19"/>
-      <c r="R96" s="19"/>
-      <c r="S96" s="19"/>
-      <c r="T96" s="20"/>
-    </row>
-    <row r="97" ht="17.25" thickTop="1"/>
+      <c r="Q76" s="13"/>
+      <c r="R76" s="13"/>
+      <c r="S76" s="13"/>
+      <c r="T76" s="14"/>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A77" s="15"/>
+      <c r="B77" s="16"/>
+      <c r="C77" s="16"/>
+      <c r="D77" s="16"/>
+      <c r="E77" s="17"/>
+      <c r="F77" s="15"/>
+      <c r="G77" s="16"/>
+      <c r="H77" s="16"/>
+      <c r="I77" s="16"/>
+      <c r="J77" s="17"/>
+      <c r="K77" s="15"/>
+      <c r="L77" s="16"/>
+      <c r="M77" s="16"/>
+      <c r="N77" s="16"/>
+      <c r="O77" s="17"/>
+      <c r="P77" s="15"/>
+      <c r="Q77" s="16"/>
+      <c r="R77" s="16"/>
+      <c r="S77" s="16"/>
+      <c r="T77" s="17"/>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A78" s="15"/>
+      <c r="B78" s="16"/>
+      <c r="C78" s="16"/>
+      <c r="D78" s="16"/>
+      <c r="E78" s="17"/>
+      <c r="F78" s="15"/>
+      <c r="G78" s="16"/>
+      <c r="H78" s="16"/>
+      <c r="I78" s="16"/>
+      <c r="J78" s="17"/>
+      <c r="K78" s="15"/>
+      <c r="L78" s="16"/>
+      <c r="M78" s="16"/>
+      <c r="N78" s="16"/>
+      <c r="O78" s="17"/>
+      <c r="P78" s="15"/>
+      <c r="Q78" s="16"/>
+      <c r="R78" s="16"/>
+      <c r="S78" s="16"/>
+      <c r="T78" s="17"/>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A79" s="15"/>
+      <c r="B79" s="16"/>
+      <c r="C79" s="16"/>
+      <c r="D79" s="16"/>
+      <c r="E79" s="17"/>
+      <c r="F79" s="15"/>
+      <c r="G79" s="16"/>
+      <c r="H79" s="16"/>
+      <c r="I79" s="16"/>
+      <c r="J79" s="17"/>
+      <c r="K79" s="15"/>
+      <c r="L79" s="16"/>
+      <c r="M79" s="16"/>
+      <c r="N79" s="16"/>
+      <c r="O79" s="17"/>
+      <c r="P79" s="15"/>
+      <c r="Q79" s="16"/>
+      <c r="R79" s="16"/>
+      <c r="S79" s="16"/>
+      <c r="T79" s="17"/>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A80" s="15"/>
+      <c r="B80" s="16"/>
+      <c r="C80" s="16"/>
+      <c r="D80" s="16"/>
+      <c r="E80" s="17"/>
+      <c r="F80" s="15"/>
+      <c r="G80" s="16"/>
+      <c r="H80" s="16"/>
+      <c r="I80" s="16"/>
+      <c r="J80" s="17"/>
+      <c r="K80" s="15"/>
+      <c r="L80" s="16"/>
+      <c r="M80" s="16"/>
+      <c r="N80" s="16"/>
+      <c r="O80" s="17"/>
+      <c r="P80" s="15"/>
+      <c r="Q80" s="16"/>
+      <c r="R80" s="16"/>
+      <c r="S80" s="16"/>
+      <c r="T80" s="17"/>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A81" s="15"/>
+      <c r="B81" s="16"/>
+      <c r="C81" s="16"/>
+      <c r="D81" s="16"/>
+      <c r="E81" s="17"/>
+      <c r="F81" s="15"/>
+      <c r="G81" s="16"/>
+      <c r="H81" s="16"/>
+      <c r="I81" s="16"/>
+      <c r="J81" s="17"/>
+      <c r="K81" s="15"/>
+      <c r="L81" s="16"/>
+      <c r="M81" s="16"/>
+      <c r="N81" s="16"/>
+      <c r="O81" s="17"/>
+      <c r="P81" s="15"/>
+      <c r="Q81" s="16"/>
+      <c r="R81" s="16"/>
+      <c r="S81" s="16"/>
+      <c r="T81" s="17"/>
+    </row>
+    <row r="82" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="18"/>
+      <c r="B82" s="19"/>
+      <c r="C82" s="19"/>
+      <c r="D82" s="19"/>
+      <c r="E82" s="20"/>
+      <c r="F82" s="18"/>
+      <c r="G82" s="19"/>
+      <c r="H82" s="19"/>
+      <c r="I82" s="19"/>
+      <c r="J82" s="20"/>
+      <c r="K82" s="18"/>
+      <c r="L82" s="19"/>
+      <c r="M82" s="19"/>
+      <c r="N82" s="19"/>
+      <c r="O82" s="20"/>
+      <c r="P82" s="18"/>
+      <c r="Q82" s="19"/>
+      <c r="R82" s="19"/>
+      <c r="S82" s="19"/>
+      <c r="T82" s="20"/>
+    </row>
+    <row r="83" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B83" s="4"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G83" s="4"/>
+      <c r="H83" s="4"/>
+      <c r="I83" s="4"/>
+      <c r="J83" s="5"/>
+      <c r="K83" s="3"/>
+      <c r="L83" s="4"/>
+      <c r="M83" s="4"/>
+      <c r="N83" s="4"/>
+      <c r="O83" s="5"/>
+      <c r="P83" s="3"/>
+      <c r="Q83" s="4"/>
+      <c r="R83" s="4"/>
+      <c r="S83" s="4"/>
+      <c r="T83" s="5"/>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A84" s="6"/>
+      <c r="B84" s="7"/>
+      <c r="C84" s="7"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="6"/>
+      <c r="G84" s="7"/>
+      <c r="H84" s="7"/>
+      <c r="I84" s="7"/>
+      <c r="J84" s="8"/>
+      <c r="K84" s="6"/>
+      <c r="L84" s="7"/>
+      <c r="M84" s="7"/>
+      <c r="N84" s="7"/>
+      <c r="O84" s="8"/>
+      <c r="P84" s="6"/>
+      <c r="Q84" s="7"/>
+      <c r="R84" s="7"/>
+      <c r="S84" s="7"/>
+      <c r="T84" s="8"/>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A85" s="6"/>
+      <c r="B85" s="7"/>
+      <c r="C85" s="7"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="6"/>
+      <c r="G85" s="7"/>
+      <c r="H85" s="7"/>
+      <c r="I85" s="7"/>
+      <c r="J85" s="8"/>
+      <c r="K85" s="6"/>
+      <c r="L85" s="7"/>
+      <c r="M85" s="7"/>
+      <c r="N85" s="7"/>
+      <c r="O85" s="8"/>
+      <c r="P85" s="6"/>
+      <c r="Q85" s="7"/>
+      <c r="R85" s="7"/>
+      <c r="S85" s="7"/>
+      <c r="T85" s="8"/>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A86" s="6"/>
+      <c r="B86" s="7"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="6"/>
+      <c r="G86" s="7"/>
+      <c r="H86" s="7"/>
+      <c r="I86" s="7"/>
+      <c r="J86" s="8"/>
+      <c r="K86" s="6"/>
+      <c r="L86" s="7"/>
+      <c r="M86" s="7"/>
+      <c r="N86" s="7"/>
+      <c r="O86" s="8"/>
+      <c r="P86" s="6"/>
+      <c r="Q86" s="7"/>
+      <c r="R86" s="7"/>
+      <c r="S86" s="7"/>
+      <c r="T86" s="8"/>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A87" s="6"/>
+      <c r="B87" s="7"/>
+      <c r="C87" s="7"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="6"/>
+      <c r="G87" s="7"/>
+      <c r="H87" s="7"/>
+      <c r="I87" s="7"/>
+      <c r="J87" s="8"/>
+      <c r="K87" s="6"/>
+      <c r="L87" s="7"/>
+      <c r="M87" s="7"/>
+      <c r="N87" s="7"/>
+      <c r="O87" s="8"/>
+      <c r="P87" s="6"/>
+      <c r="Q87" s="7"/>
+      <c r="R87" s="7"/>
+      <c r="S87" s="7"/>
+      <c r="T87" s="8"/>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A88" s="6"/>
+      <c r="B88" s="7"/>
+      <c r="C88" s="7"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="6"/>
+      <c r="G88" s="7"/>
+      <c r="H88" s="7"/>
+      <c r="I88" s="7"/>
+      <c r="J88" s="8"/>
+      <c r="K88" s="6"/>
+      <c r="L88" s="7"/>
+      <c r="M88" s="7"/>
+      <c r="N88" s="7"/>
+      <c r="O88" s="8"/>
+      <c r="P88" s="6"/>
+      <c r="Q88" s="7"/>
+      <c r="R88" s="7"/>
+      <c r="S88" s="7"/>
+      <c r="T88" s="8"/>
+    </row>
+    <row r="89" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="9"/>
+      <c r="B89" s="10"/>
+      <c r="C89" s="10"/>
+      <c r="D89" s="10"/>
+      <c r="E89" s="11"/>
+      <c r="F89" s="9"/>
+      <c r="G89" s="10"/>
+      <c r="H89" s="10"/>
+      <c r="I89" s="10"/>
+      <c r="J89" s="11"/>
+      <c r="K89" s="9"/>
+      <c r="L89" s="10"/>
+      <c r="M89" s="10"/>
+      <c r="N89" s="10"/>
+      <c r="O89" s="11"/>
+      <c r="P89" s="9"/>
+      <c r="Q89" s="10"/>
+      <c r="R89" s="10"/>
+      <c r="S89" s="10"/>
+      <c r="T89" s="11"/>
+    </row>
+    <row r="90" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="3"/>
+      <c r="B90" s="4"/>
+      <c r="C90" s="4"/>
+      <c r="D90" s="4"/>
+      <c r="E90" s="5"/>
+      <c r="F90" s="3"/>
+      <c r="G90" s="4"/>
+      <c r="H90" s="4"/>
+      <c r="I90" s="4"/>
+      <c r="J90" s="5"/>
+      <c r="K90" s="3"/>
+      <c r="L90" s="4"/>
+      <c r="M90" s="4"/>
+      <c r="N90" s="4"/>
+      <c r="O90" s="5"/>
+      <c r="P90" s="3"/>
+      <c r="Q90" s="4"/>
+      <c r="R90" s="4"/>
+      <c r="S90" s="4"/>
+      <c r="T90" s="5"/>
+    </row>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A91" s="6"/>
+      <c r="B91" s="7"/>
+      <c r="C91" s="7"/>
+      <c r="D91" s="7"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="6"/>
+      <c r="G91" s="7"/>
+      <c r="H91" s="7"/>
+      <c r="I91" s="7"/>
+      <c r="J91" s="8"/>
+      <c r="K91" s="6"/>
+      <c r="L91" s="7"/>
+      <c r="M91" s="7"/>
+      <c r="N91" s="7"/>
+      <c r="O91" s="8"/>
+      <c r="P91" s="6"/>
+      <c r="Q91" s="7"/>
+      <c r="R91" s="7"/>
+      <c r="S91" s="7"/>
+      <c r="T91" s="8"/>
+    </row>
+    <row r="92" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A92" s="6"/>
+      <c r="B92" s="7"/>
+      <c r="C92" s="7"/>
+      <c r="D92" s="7"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="6"/>
+      <c r="G92" s="7"/>
+      <c r="H92" s="7"/>
+      <c r="I92" s="7"/>
+      <c r="J92" s="8"/>
+      <c r="K92" s="6"/>
+      <c r="L92" s="7"/>
+      <c r="M92" s="7"/>
+      <c r="N92" s="7"/>
+      <c r="O92" s="8"/>
+      <c r="P92" s="6"/>
+      <c r="Q92" s="7"/>
+      <c r="R92" s="7"/>
+      <c r="S92" s="7"/>
+      <c r="T92" s="8"/>
+    </row>
+    <row r="93" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A93" s="6"/>
+      <c r="B93" s="7"/>
+      <c r="C93" s="7"/>
+      <c r="D93" s="7"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="6"/>
+      <c r="G93" s="7"/>
+      <c r="H93" s="7"/>
+      <c r="I93" s="7"/>
+      <c r="J93" s="8"/>
+      <c r="K93" s="6"/>
+      <c r="L93" s="7"/>
+      <c r="M93" s="7"/>
+      <c r="N93" s="7"/>
+      <c r="O93" s="8"/>
+      <c r="P93" s="6"/>
+      <c r="Q93" s="7"/>
+      <c r="R93" s="7"/>
+      <c r="S93" s="7"/>
+      <c r="T93" s="8"/>
+    </row>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A94" s="6"/>
+      <c r="B94" s="7"/>
+      <c r="C94" s="7"/>
+      <c r="D94" s="7"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="6"/>
+      <c r="G94" s="7"/>
+      <c r="H94" s="7"/>
+      <c r="I94" s="7"/>
+      <c r="J94" s="8"/>
+      <c r="K94" s="6"/>
+      <c r="L94" s="7"/>
+      <c r="M94" s="7"/>
+      <c r="N94" s="7"/>
+      <c r="O94" s="8"/>
+      <c r="P94" s="6"/>
+      <c r="Q94" s="7"/>
+      <c r="R94" s="7"/>
+      <c r="S94" s="7"/>
+      <c r="T94" s="8"/>
+    </row>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A95" s="6"/>
+      <c r="B95" s="7"/>
+      <c r="C95" s="7"/>
+      <c r="D95" s="7"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="6"/>
+      <c r="G95" s="7"/>
+      <c r="H95" s="7"/>
+      <c r="I95" s="7"/>
+      <c r="J95" s="8"/>
+      <c r="K95" s="6"/>
+      <c r="L95" s="7"/>
+      <c r="M95" s="7"/>
+      <c r="N95" s="7"/>
+      <c r="O95" s="8"/>
+      <c r="P95" s="6"/>
+      <c r="Q95" s="7"/>
+      <c r="R95" s="7"/>
+      <c r="S95" s="7"/>
+      <c r="T95" s="8"/>
+    </row>
+    <row r="96" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="9"/>
+      <c r="B96" s="10"/>
+      <c r="C96" s="10"/>
+      <c r="D96" s="10"/>
+      <c r="E96" s="11"/>
+      <c r="F96" s="9"/>
+      <c r="G96" s="10"/>
+      <c r="H96" s="10"/>
+      <c r="I96" s="10"/>
+      <c r="J96" s="11"/>
+      <c r="K96" s="9"/>
+      <c r="L96" s="10"/>
+      <c r="M96" s="10"/>
+      <c r="N96" s="10"/>
+      <c r="O96" s="11"/>
+      <c r="P96" s="9"/>
+      <c r="Q96" s="10"/>
+      <c r="R96" s="10"/>
+      <c r="S96" s="10"/>
+      <c r="T96" s="11"/>
+    </row>
+    <row r="97" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="K90:O96"/>
-    <mergeCell ref="P76:T82"/>
-    <mergeCell ref="P83:T89"/>
-    <mergeCell ref="P90:T96"/>
-    <mergeCell ref="K41:O47"/>
-    <mergeCell ref="P59:T65"/>
-    <mergeCell ref="P66:T72"/>
-    <mergeCell ref="K76:O82"/>
-    <mergeCell ref="K83:O89"/>
+    <mergeCell ref="A76:E82"/>
+    <mergeCell ref="A83:E89"/>
+    <mergeCell ref="A90:E96"/>
+    <mergeCell ref="F76:J82"/>
+    <mergeCell ref="F83:J89"/>
+    <mergeCell ref="F90:J96"/>
+    <mergeCell ref="A59:E65"/>
+    <mergeCell ref="A66:E72"/>
+    <mergeCell ref="F59:J65"/>
+    <mergeCell ref="F66:J72"/>
+    <mergeCell ref="K59:O65"/>
+    <mergeCell ref="K66:O72"/>
+    <mergeCell ref="A10:E16"/>
+    <mergeCell ref="A17:E23"/>
+    <mergeCell ref="F3:J9"/>
+    <mergeCell ref="F10:J16"/>
+    <mergeCell ref="F17:J23"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="A3:E9"/>
+    <mergeCell ref="K3:O9"/>
+    <mergeCell ref="K10:O16"/>
+    <mergeCell ref="K17:O23"/>
+    <mergeCell ref="P3:T9"/>
+    <mergeCell ref="P10:T16"/>
+    <mergeCell ref="P17:T23"/>
     <mergeCell ref="P27:T33"/>
     <mergeCell ref="P34:T40"/>
     <mergeCell ref="P41:T47"/>
@@ -2915,34 +3182,15 @@
     <mergeCell ref="F41:J47"/>
     <mergeCell ref="K27:O33"/>
     <mergeCell ref="K34:O40"/>
-    <mergeCell ref="K10:O16"/>
-    <mergeCell ref="K17:O23"/>
-    <mergeCell ref="P3:T9"/>
-    <mergeCell ref="P10:T16"/>
-    <mergeCell ref="P17:T23"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="A3:E9"/>
-    <mergeCell ref="K3:O9"/>
-    <mergeCell ref="A10:E16"/>
-    <mergeCell ref="A17:E23"/>
-    <mergeCell ref="F3:J9"/>
-    <mergeCell ref="F10:J16"/>
-    <mergeCell ref="F17:J23"/>
-    <mergeCell ref="A59:E65"/>
-    <mergeCell ref="A66:E72"/>
-    <mergeCell ref="F59:J65"/>
-    <mergeCell ref="F66:J72"/>
-    <mergeCell ref="K59:O65"/>
-    <mergeCell ref="K66:O72"/>
-    <mergeCell ref="A76:E82"/>
-    <mergeCell ref="A83:E89"/>
-    <mergeCell ref="A90:E96"/>
-    <mergeCell ref="F76:J82"/>
-    <mergeCell ref="F83:J89"/>
-    <mergeCell ref="F90:J96"/>
+    <mergeCell ref="K90:O96"/>
+    <mergeCell ref="P76:T82"/>
+    <mergeCell ref="P83:T89"/>
+    <mergeCell ref="P90:T96"/>
+    <mergeCell ref="K41:O47"/>
+    <mergeCell ref="P59:T65"/>
+    <mergeCell ref="P66:T72"/>
+    <mergeCell ref="K76:O82"/>
+    <mergeCell ref="K83:O89"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2951,12 +3199,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2964,12 +3212,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/일정계획표.xlsx
+++ b/일정계획표.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\home\Documents\GitHub\FoodBot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\FoodBot\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="22050" windowHeight="9270"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17925" windowHeight="8400"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -148,12 +148,6 @@
   </si>
   <si>
     <t>차트 학습연동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서버환경구축 마무리
-- 설명서
-음식 데이터 보완</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -386,13 +380,40 @@
     <r>
       <rPr>
         <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>이상형월드컵 사진 수집</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
         <color rgb="FFFFC000"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>이상형월드컵 사진 수집</t>
+      <t>서버환경구축 마무리
+- 설명서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+음식 데이터 보완</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -587,6 +608,33 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -614,33 +662,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -668,33 +689,45 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -720,18 +753,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1102,8 +1123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:T97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10:J16"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10:T16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1112,220 +1133,220 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:20" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="51" t="s">
+      <c r="F2" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
       <c r="J2" s="1"/>
-      <c r="K2" s="51" t="s">
+      <c r="K2" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
-      <c r="P2" s="51" t="s">
+      <c r="P2" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="51"/>
-      <c r="S2" s="51"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="41"/>
+      <c r="S2" s="41"/>
     </row>
     <row r="3" spans="1:20" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="49" t="s">
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="49" t="s">
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="30" t="s">
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="31"/>
-      <c r="S3" s="31"/>
-      <c r="T3" s="32"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="32"/>
+      <c r="T3" s="33"/>
     </row>
     <row r="4" spans="1:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="33"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="35"/>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="34"/>
-      <c r="R4" s="34"/>
-      <c r="S4" s="34"/>
-      <c r="T4" s="35"/>
+      <c r="A4" s="34"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="35"/>
+      <c r="R4" s="35"/>
+      <c r="S4" s="35"/>
+      <c r="T4" s="36"/>
     </row>
     <row r="5" spans="1:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="33"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="35"/>
-      <c r="P5" s="33"/>
-      <c r="Q5" s="34"/>
-      <c r="R5" s="34"/>
-      <c r="S5" s="34"/>
-      <c r="T5" s="35"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="34"/>
+      <c r="Q5" s="35"/>
+      <c r="R5" s="35"/>
+      <c r="S5" s="35"/>
+      <c r="T5" s="36"/>
     </row>
     <row r="6" spans="1:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="33"/>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="34"/>
-      <c r="O6" s="35"/>
-      <c r="P6" s="33"/>
-      <c r="Q6" s="34"/>
-      <c r="R6" s="34"/>
-      <c r="S6" s="34"/>
-      <c r="T6" s="35"/>
+      <c r="A6" s="34"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="35"/>
+      <c r="R6" s="35"/>
+      <c r="S6" s="35"/>
+      <c r="T6" s="36"/>
     </row>
     <row r="7" spans="1:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="33"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="34"/>
-      <c r="N7" s="34"/>
-      <c r="O7" s="35"/>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="34"/>
-      <c r="R7" s="34"/>
-      <c r="S7" s="34"/>
-      <c r="T7" s="35"/>
+      <c r="A7" s="34"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="35"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="34"/>
+      <c r="Q7" s="35"/>
+      <c r="R7" s="35"/>
+      <c r="S7" s="35"/>
+      <c r="T7" s="36"/>
     </row>
     <row r="8" spans="1:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="33"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="35"/>
-      <c r="P8" s="33"/>
-      <c r="Q8" s="34"/>
-      <c r="R8" s="34"/>
-      <c r="S8" s="34"/>
-      <c r="T8" s="35"/>
+      <c r="A8" s="34"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="34"/>
+      <c r="Q8" s="35"/>
+      <c r="R8" s="35"/>
+      <c r="S8" s="35"/>
+      <c r="T8" s="36"/>
     </row>
     <row r="9" spans="1:20" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="36"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="37"/>
-      <c r="M9" s="37"/>
-      <c r="N9" s="37"/>
-      <c r="O9" s="38"/>
-      <c r="P9" s="36"/>
-      <c r="Q9" s="37"/>
-      <c r="R9" s="37"/>
-      <c r="S9" s="37"/>
-      <c r="T9" s="38"/>
+      <c r="A9" s="37"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="38"/>
+      <c r="O9" s="39"/>
+      <c r="P9" s="37"/>
+      <c r="Q9" s="38"/>
+      <c r="R9" s="38"/>
+      <c r="S9" s="38"/>
+      <c r="T9" s="39"/>
     </row>
     <row r="10" spans="1:20" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="48" t="s">
-        <v>41</v>
+      <c r="A10" s="30" t="s">
+        <v>40</v>
       </c>
       <c r="B10" s="22"/>
       <c r="C10" s="22"/>
       <c r="D10" s="22"/>
       <c r="E10" s="23"/>
-      <c r="F10" s="48" t="s">
-        <v>39</v>
+      <c r="F10" s="30" t="s">
+        <v>38</v>
       </c>
       <c r="G10" s="22"/>
       <c r="H10" s="22"/>
       <c r="I10" s="22"/>
       <c r="J10" s="23"/>
-      <c r="K10" s="48" t="s">
-        <v>40</v>
+      <c r="K10" s="30" t="s">
+        <v>39</v>
       </c>
       <c r="L10" s="22"/>
       <c r="M10" s="22"/>
       <c r="N10" s="22"/>
       <c r="O10" s="23"/>
-      <c r="P10" s="48" t="s">
-        <v>30</v>
+      <c r="P10" s="30" t="s">
+        <v>41</v>
       </c>
       <c r="Q10" s="22"/>
       <c r="R10" s="22"/>
@@ -1479,7 +1500,7 @@
       <c r="H17" s="22"/>
       <c r="I17" s="22"/>
       <c r="J17" s="23"/>
-      <c r="K17" s="48" t="s">
+      <c r="K17" s="30" t="s">
         <v>19</v>
       </c>
       <c r="L17" s="22"/>
@@ -1663,196 +1684,196 @@
       </c>
     </row>
     <row r="27" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="49" t="s">
+      <c r="A27" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="31"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="49" t="s">
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="L27" s="32"/>
+      <c r="M27" s="32"/>
+      <c r="N27" s="32"/>
+      <c r="O27" s="33"/>
+      <c r="P27" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q27" s="32"/>
+      <c r="R27" s="32"/>
+      <c r="S27" s="32"/>
+      <c r="T27" s="33"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A28" s="34"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="35"/>
+      <c r="M28" s="35"/>
+      <c r="N28" s="35"/>
+      <c r="O28" s="36"/>
+      <c r="P28" s="34"/>
+      <c r="Q28" s="35"/>
+      <c r="R28" s="35"/>
+      <c r="S28" s="35"/>
+      <c r="T28" s="36"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A29" s="34"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="36"/>
+      <c r="K29" s="34"/>
+      <c r="L29" s="35"/>
+      <c r="M29" s="35"/>
+      <c r="N29" s="35"/>
+      <c r="O29" s="36"/>
+      <c r="P29" s="34"/>
+      <c r="Q29" s="35"/>
+      <c r="R29" s="35"/>
+      <c r="S29" s="35"/>
+      <c r="T29" s="36"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A30" s="34"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="36"/>
+      <c r="K30" s="34"/>
+      <c r="L30" s="35"/>
+      <c r="M30" s="35"/>
+      <c r="N30" s="35"/>
+      <c r="O30" s="36"/>
+      <c r="P30" s="34"/>
+      <c r="Q30" s="35"/>
+      <c r="R30" s="35"/>
+      <c r="S30" s="35"/>
+      <c r="T30" s="36"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A31" s="34"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="35"/>
+      <c r="J31" s="36"/>
+      <c r="K31" s="34"/>
+      <c r="L31" s="35"/>
+      <c r="M31" s="35"/>
+      <c r="N31" s="35"/>
+      <c r="O31" s="36"/>
+      <c r="P31" s="34"/>
+      <c r="Q31" s="35"/>
+      <c r="R31" s="35"/>
+      <c r="S31" s="35"/>
+      <c r="T31" s="36"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A32" s="34"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="35"/>
+      <c r="J32" s="36"/>
+      <c r="K32" s="34"/>
+      <c r="L32" s="35"/>
+      <c r="M32" s="35"/>
+      <c r="N32" s="35"/>
+      <c r="O32" s="36"/>
+      <c r="P32" s="34"/>
+      <c r="Q32" s="35"/>
+      <c r="R32" s="35"/>
+      <c r="S32" s="35"/>
+      <c r="T32" s="36"/>
+    </row>
+    <row r="33" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="37"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="38"/>
+      <c r="I33" s="38"/>
+      <c r="J33" s="39"/>
+      <c r="K33" s="37"/>
+      <c r="L33" s="38"/>
+      <c r="M33" s="38"/>
+      <c r="N33" s="38"/>
+      <c r="O33" s="39"/>
+      <c r="P33" s="37"/>
+      <c r="Q33" s="38"/>
+      <c r="R33" s="38"/>
+      <c r="S33" s="38"/>
+      <c r="T33" s="39"/>
+    </row>
+    <row r="34" spans="1:20" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="30" t="s">
         <v>32</v>
-      </c>
-      <c r="G27" s="31"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="32"/>
-      <c r="K27" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="L27" s="31"/>
-      <c r="M27" s="31"/>
-      <c r="N27" s="31"/>
-      <c r="O27" s="32"/>
-      <c r="P27" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q27" s="31"/>
-      <c r="R27" s="31"/>
-      <c r="S27" s="31"/>
-      <c r="T27" s="32"/>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A28" s="33"/>
-      <c r="B28" s="34"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="33"/>
-      <c r="L28" s="34"/>
-      <c r="M28" s="34"/>
-      <c r="N28" s="34"/>
-      <c r="O28" s="35"/>
-      <c r="P28" s="33"/>
-      <c r="Q28" s="34"/>
-      <c r="R28" s="34"/>
-      <c r="S28" s="34"/>
-      <c r="T28" s="35"/>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A29" s="33"/>
-      <c r="B29" s="34"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="34"/>
-      <c r="J29" s="35"/>
-      <c r="K29" s="33"/>
-      <c r="L29" s="34"/>
-      <c r="M29" s="34"/>
-      <c r="N29" s="34"/>
-      <c r="O29" s="35"/>
-      <c r="P29" s="33"/>
-      <c r="Q29" s="34"/>
-      <c r="R29" s="34"/>
-      <c r="S29" s="34"/>
-      <c r="T29" s="35"/>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A30" s="33"/>
-      <c r="B30" s="34"/>
-      <c r="C30" s="34"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="34"/>
-      <c r="H30" s="34"/>
-      <c r="I30" s="34"/>
-      <c r="J30" s="35"/>
-      <c r="K30" s="33"/>
-      <c r="L30" s="34"/>
-      <c r="M30" s="34"/>
-      <c r="N30" s="34"/>
-      <c r="O30" s="35"/>
-      <c r="P30" s="33"/>
-      <c r="Q30" s="34"/>
-      <c r="R30" s="34"/>
-      <c r="S30" s="34"/>
-      <c r="T30" s="35"/>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A31" s="33"/>
-      <c r="B31" s="34"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="34"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="34"/>
-      <c r="J31" s="35"/>
-      <c r="K31" s="33"/>
-      <c r="L31" s="34"/>
-      <c r="M31" s="34"/>
-      <c r="N31" s="34"/>
-      <c r="O31" s="35"/>
-      <c r="P31" s="33"/>
-      <c r="Q31" s="34"/>
-      <c r="R31" s="34"/>
-      <c r="S31" s="34"/>
-      <c r="T31" s="35"/>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A32" s="33"/>
-      <c r="B32" s="34"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="34"/>
-      <c r="I32" s="34"/>
-      <c r="J32" s="35"/>
-      <c r="K32" s="33"/>
-      <c r="L32" s="34"/>
-      <c r="M32" s="34"/>
-      <c r="N32" s="34"/>
-      <c r="O32" s="35"/>
-      <c r="P32" s="33"/>
-      <c r="Q32" s="34"/>
-      <c r="R32" s="34"/>
-      <c r="S32" s="34"/>
-      <c r="T32" s="35"/>
-    </row>
-    <row r="33" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="36"/>
-      <c r="B33" s="37"/>
-      <c r="C33" s="37"/>
-      <c r="D33" s="37"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="37"/>
-      <c r="H33" s="37"/>
-      <c r="I33" s="37"/>
-      <c r="J33" s="38"/>
-      <c r="K33" s="36"/>
-      <c r="L33" s="37"/>
-      <c r="M33" s="37"/>
-      <c r="N33" s="37"/>
-      <c r="O33" s="38"/>
-      <c r="P33" s="36"/>
-      <c r="Q33" s="37"/>
-      <c r="R33" s="37"/>
-      <c r="S33" s="37"/>
-      <c r="T33" s="38"/>
-    </row>
-    <row r="34" spans="1:20" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="48" t="s">
-        <v>33</v>
       </c>
       <c r="B34" s="22"/>
       <c r="C34" s="22"/>
       <c r="D34" s="22"/>
       <c r="E34" s="23"/>
       <c r="F34" s="21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G34" s="22"/>
       <c r="H34" s="22"/>
       <c r="I34" s="22"/>
       <c r="J34" s="23"/>
       <c r="K34" s="21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L34" s="22"/>
       <c r="M34" s="22"/>
       <c r="N34" s="22"/>
       <c r="O34" s="23"/>
-      <c r="P34" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q34" s="40"/>
-      <c r="R34" s="40"/>
-      <c r="S34" s="40"/>
-      <c r="T34" s="41"/>
+      <c r="P34" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q34" s="44"/>
+      <c r="R34" s="44"/>
+      <c r="S34" s="44"/>
+      <c r="T34" s="45"/>
     </row>
     <row r="35" spans="1:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="24"/>
@@ -1870,11 +1891,11 @@
       <c r="M35" s="25"/>
       <c r="N35" s="25"/>
       <c r="O35" s="26"/>
-      <c r="P35" s="42"/>
-      <c r="Q35" s="43"/>
-      <c r="R35" s="43"/>
-      <c r="S35" s="43"/>
-      <c r="T35" s="44"/>
+      <c r="P35" s="46"/>
+      <c r="Q35" s="47"/>
+      <c r="R35" s="47"/>
+      <c r="S35" s="47"/>
+      <c r="T35" s="48"/>
     </row>
     <row r="36" spans="1:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="24"/>
@@ -1892,11 +1913,11 @@
       <c r="M36" s="25"/>
       <c r="N36" s="25"/>
       <c r="O36" s="26"/>
-      <c r="P36" s="42"/>
-      <c r="Q36" s="43"/>
-      <c r="R36" s="43"/>
-      <c r="S36" s="43"/>
-      <c r="T36" s="44"/>
+      <c r="P36" s="46"/>
+      <c r="Q36" s="47"/>
+      <c r="R36" s="47"/>
+      <c r="S36" s="47"/>
+      <c r="T36" s="48"/>
     </row>
     <row r="37" spans="1:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="24"/>
@@ -1914,11 +1935,11 @@
       <c r="M37" s="25"/>
       <c r="N37" s="25"/>
       <c r="O37" s="26"/>
-      <c r="P37" s="42"/>
-      <c r="Q37" s="43"/>
-      <c r="R37" s="43"/>
-      <c r="S37" s="43"/>
-      <c r="T37" s="44"/>
+      <c r="P37" s="46"/>
+      <c r="Q37" s="47"/>
+      <c r="R37" s="47"/>
+      <c r="S37" s="47"/>
+      <c r="T37" s="48"/>
     </row>
     <row r="38" spans="1:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="24"/>
@@ -1936,11 +1957,11 @@
       <c r="M38" s="25"/>
       <c r="N38" s="25"/>
       <c r="O38" s="26"/>
-      <c r="P38" s="42"/>
-      <c r="Q38" s="43"/>
-      <c r="R38" s="43"/>
-      <c r="S38" s="43"/>
-      <c r="T38" s="44"/>
+      <c r="P38" s="46"/>
+      <c r="Q38" s="47"/>
+      <c r="R38" s="47"/>
+      <c r="S38" s="47"/>
+      <c r="T38" s="48"/>
     </row>
     <row r="39" spans="1:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="24"/>
@@ -1958,11 +1979,11 @@
       <c r="M39" s="25"/>
       <c r="N39" s="25"/>
       <c r="O39" s="26"/>
-      <c r="P39" s="42"/>
-      <c r="Q39" s="43"/>
-      <c r="R39" s="43"/>
-      <c r="S39" s="43"/>
-      <c r="T39" s="44"/>
+      <c r="P39" s="46"/>
+      <c r="Q39" s="47"/>
+      <c r="R39" s="47"/>
+      <c r="S39" s="47"/>
+      <c r="T39" s="48"/>
     </row>
     <row r="40" spans="1:20" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="27"/>
@@ -1980,14 +2001,14 @@
       <c r="M40" s="28"/>
       <c r="N40" s="28"/>
       <c r="O40" s="29"/>
-      <c r="P40" s="45"/>
-      <c r="Q40" s="46"/>
-      <c r="R40" s="46"/>
-      <c r="S40" s="46"/>
-      <c r="T40" s="47"/>
+      <c r="P40" s="49"/>
+      <c r="Q40" s="50"/>
+      <c r="R40" s="50"/>
+      <c r="S40" s="50"/>
+      <c r="T40" s="51"/>
     </row>
     <row r="41" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="48" t="s">
+      <c r="A41" s="30" t="s">
         <v>26</v>
       </c>
       <c r="B41" s="22"/>
@@ -2008,7 +2029,7 @@
       <c r="M41" s="22"/>
       <c r="N41" s="22"/>
       <c r="O41" s="23"/>
-      <c r="P41" s="48" t="s">
+      <c r="P41" s="30" t="s">
         <v>25</v>
       </c>
       <c r="Q41" s="22"/>
@@ -2164,191 +2185,191 @@
       </c>
     </row>
     <row r="52" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="B52" s="31"/>
-      <c r="C52" s="31"/>
-      <c r="D52" s="31"/>
-      <c r="E52" s="32"/>
-      <c r="F52" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="G52" s="31"/>
-      <c r="H52" s="31"/>
-      <c r="I52" s="31"/>
-      <c r="J52" s="32"/>
-      <c r="K52" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="L52" s="31"/>
-      <c r="M52" s="31"/>
-      <c r="N52" s="31"/>
-      <c r="O52" s="32"/>
-      <c r="P52" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q52" s="31"/>
-      <c r="R52" s="31"/>
-      <c r="S52" s="31"/>
-      <c r="T52" s="32"/>
+      <c r="A52" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="B52" s="32"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="33"/>
+      <c r="F52" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="G52" s="32"/>
+      <c r="H52" s="32"/>
+      <c r="I52" s="32"/>
+      <c r="J52" s="33"/>
+      <c r="K52" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="L52" s="32"/>
+      <c r="M52" s="32"/>
+      <c r="N52" s="32"/>
+      <c r="O52" s="33"/>
+      <c r="P52" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q52" s="32"/>
+      <c r="R52" s="32"/>
+      <c r="S52" s="32"/>
+      <c r="T52" s="33"/>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A53" s="33"/>
-      <c r="B53" s="34"/>
-      <c r="C53" s="34"/>
-      <c r="D53" s="34"/>
-      <c r="E53" s="35"/>
-      <c r="F53" s="33"/>
-      <c r="G53" s="34"/>
-      <c r="H53" s="34"/>
-      <c r="I53" s="34"/>
-      <c r="J53" s="35"/>
-      <c r="K53" s="33"/>
-      <c r="L53" s="34"/>
-      <c r="M53" s="34"/>
-      <c r="N53" s="34"/>
-      <c r="O53" s="35"/>
-      <c r="P53" s="33"/>
-      <c r="Q53" s="34"/>
-      <c r="R53" s="34"/>
-      <c r="S53" s="34"/>
-      <c r="T53" s="35"/>
+      <c r="A53" s="34"/>
+      <c r="B53" s="35"/>
+      <c r="C53" s="35"/>
+      <c r="D53" s="35"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="34"/>
+      <c r="G53" s="35"/>
+      <c r="H53" s="35"/>
+      <c r="I53" s="35"/>
+      <c r="J53" s="36"/>
+      <c r="K53" s="34"/>
+      <c r="L53" s="35"/>
+      <c r="M53" s="35"/>
+      <c r="N53" s="35"/>
+      <c r="O53" s="36"/>
+      <c r="P53" s="34"/>
+      <c r="Q53" s="35"/>
+      <c r="R53" s="35"/>
+      <c r="S53" s="35"/>
+      <c r="T53" s="36"/>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A54" s="33"/>
-      <c r="B54" s="34"/>
-      <c r="C54" s="34"/>
-      <c r="D54" s="34"/>
-      <c r="E54" s="35"/>
-      <c r="F54" s="33"/>
-      <c r="G54" s="34"/>
-      <c r="H54" s="34"/>
-      <c r="I54" s="34"/>
-      <c r="J54" s="35"/>
-      <c r="K54" s="33"/>
-      <c r="L54" s="34"/>
-      <c r="M54" s="34"/>
-      <c r="N54" s="34"/>
-      <c r="O54" s="35"/>
-      <c r="P54" s="33"/>
-      <c r="Q54" s="34"/>
-      <c r="R54" s="34"/>
-      <c r="S54" s="34"/>
-      <c r="T54" s="35"/>
+      <c r="A54" s="34"/>
+      <c r="B54" s="35"/>
+      <c r="C54" s="35"/>
+      <c r="D54" s="35"/>
+      <c r="E54" s="36"/>
+      <c r="F54" s="34"/>
+      <c r="G54" s="35"/>
+      <c r="H54" s="35"/>
+      <c r="I54" s="35"/>
+      <c r="J54" s="36"/>
+      <c r="K54" s="34"/>
+      <c r="L54" s="35"/>
+      <c r="M54" s="35"/>
+      <c r="N54" s="35"/>
+      <c r="O54" s="36"/>
+      <c r="P54" s="34"/>
+      <c r="Q54" s="35"/>
+      <c r="R54" s="35"/>
+      <c r="S54" s="35"/>
+      <c r="T54" s="36"/>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A55" s="33"/>
-      <c r="B55" s="34"/>
-      <c r="C55" s="34"/>
-      <c r="D55" s="34"/>
-      <c r="E55" s="35"/>
-      <c r="F55" s="33"/>
-      <c r="G55" s="34"/>
-      <c r="H55" s="34"/>
-      <c r="I55" s="34"/>
-      <c r="J55" s="35"/>
-      <c r="K55" s="33"/>
-      <c r="L55" s="34"/>
-      <c r="M55" s="34"/>
-      <c r="N55" s="34"/>
-      <c r="O55" s="35"/>
-      <c r="P55" s="33"/>
-      <c r="Q55" s="34"/>
-      <c r="R55" s="34"/>
-      <c r="S55" s="34"/>
-      <c r="T55" s="35"/>
+      <c r="A55" s="34"/>
+      <c r="B55" s="35"/>
+      <c r="C55" s="35"/>
+      <c r="D55" s="35"/>
+      <c r="E55" s="36"/>
+      <c r="F55" s="34"/>
+      <c r="G55" s="35"/>
+      <c r="H55" s="35"/>
+      <c r="I55" s="35"/>
+      <c r="J55" s="36"/>
+      <c r="K55" s="34"/>
+      <c r="L55" s="35"/>
+      <c r="M55" s="35"/>
+      <c r="N55" s="35"/>
+      <c r="O55" s="36"/>
+      <c r="P55" s="34"/>
+      <c r="Q55" s="35"/>
+      <c r="R55" s="35"/>
+      <c r="S55" s="35"/>
+      <c r="T55" s="36"/>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A56" s="33"/>
-      <c r="B56" s="34"/>
-      <c r="C56" s="34"/>
-      <c r="D56" s="34"/>
-      <c r="E56" s="35"/>
-      <c r="F56" s="33"/>
-      <c r="G56" s="34"/>
-      <c r="H56" s="34"/>
-      <c r="I56" s="34"/>
-      <c r="J56" s="35"/>
-      <c r="K56" s="33"/>
-      <c r="L56" s="34"/>
-      <c r="M56" s="34"/>
-      <c r="N56" s="34"/>
-      <c r="O56" s="35"/>
-      <c r="P56" s="33"/>
-      <c r="Q56" s="34"/>
-      <c r="R56" s="34"/>
-      <c r="S56" s="34"/>
-      <c r="T56" s="35"/>
+      <c r="A56" s="34"/>
+      <c r="B56" s="35"/>
+      <c r="C56" s="35"/>
+      <c r="D56" s="35"/>
+      <c r="E56" s="36"/>
+      <c r="F56" s="34"/>
+      <c r="G56" s="35"/>
+      <c r="H56" s="35"/>
+      <c r="I56" s="35"/>
+      <c r="J56" s="36"/>
+      <c r="K56" s="34"/>
+      <c r="L56" s="35"/>
+      <c r="M56" s="35"/>
+      <c r="N56" s="35"/>
+      <c r="O56" s="36"/>
+      <c r="P56" s="34"/>
+      <c r="Q56" s="35"/>
+      <c r="R56" s="35"/>
+      <c r="S56" s="35"/>
+      <c r="T56" s="36"/>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A57" s="33"/>
-      <c r="B57" s="34"/>
-      <c r="C57" s="34"/>
-      <c r="D57" s="34"/>
-      <c r="E57" s="35"/>
-      <c r="F57" s="33"/>
-      <c r="G57" s="34"/>
-      <c r="H57" s="34"/>
-      <c r="I57" s="34"/>
-      <c r="J57" s="35"/>
-      <c r="K57" s="33"/>
-      <c r="L57" s="34"/>
-      <c r="M57" s="34"/>
-      <c r="N57" s="34"/>
-      <c r="O57" s="35"/>
-      <c r="P57" s="33"/>
-      <c r="Q57" s="34"/>
-      <c r="R57" s="34"/>
-      <c r="S57" s="34"/>
-      <c r="T57" s="35"/>
+      <c r="A57" s="34"/>
+      <c r="B57" s="35"/>
+      <c r="C57" s="35"/>
+      <c r="D57" s="35"/>
+      <c r="E57" s="36"/>
+      <c r="F57" s="34"/>
+      <c r="G57" s="35"/>
+      <c r="H57" s="35"/>
+      <c r="I57" s="35"/>
+      <c r="J57" s="36"/>
+      <c r="K57" s="34"/>
+      <c r="L57" s="35"/>
+      <c r="M57" s="35"/>
+      <c r="N57" s="35"/>
+      <c r="O57" s="36"/>
+      <c r="P57" s="34"/>
+      <c r="Q57" s="35"/>
+      <c r="R57" s="35"/>
+      <c r="S57" s="35"/>
+      <c r="T57" s="36"/>
     </row>
     <row r="58" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="36"/>
-      <c r="B58" s="37"/>
-      <c r="C58" s="37"/>
-      <c r="D58" s="37"/>
-      <c r="E58" s="38"/>
-      <c r="F58" s="36"/>
-      <c r="G58" s="37"/>
-      <c r="H58" s="37"/>
-      <c r="I58" s="37"/>
-      <c r="J58" s="38"/>
-      <c r="K58" s="36"/>
-      <c r="L58" s="37"/>
-      <c r="M58" s="37"/>
-      <c r="N58" s="37"/>
-      <c r="O58" s="38"/>
-      <c r="P58" s="36"/>
-      <c r="Q58" s="37"/>
-      <c r="R58" s="37"/>
-      <c r="S58" s="37"/>
-      <c r="T58" s="38"/>
+      <c r="A58" s="37"/>
+      <c r="B58" s="38"/>
+      <c r="C58" s="38"/>
+      <c r="D58" s="38"/>
+      <c r="E58" s="39"/>
+      <c r="F58" s="37"/>
+      <c r="G58" s="38"/>
+      <c r="H58" s="38"/>
+      <c r="I58" s="38"/>
+      <c r="J58" s="39"/>
+      <c r="K58" s="37"/>
+      <c r="L58" s="38"/>
+      <c r="M58" s="38"/>
+      <c r="N58" s="38"/>
+      <c r="O58" s="39"/>
+      <c r="P58" s="37"/>
+      <c r="Q58" s="38"/>
+      <c r="R58" s="38"/>
+      <c r="S58" s="38"/>
+      <c r="T58" s="39"/>
     </row>
     <row r="59" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A59" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B59" s="22"/>
       <c r="C59" s="22"/>
       <c r="D59" s="22"/>
       <c r="E59" s="23"/>
       <c r="F59" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G59" s="22"/>
       <c r="H59" s="22"/>
       <c r="I59" s="22"/>
       <c r="J59" s="23"/>
       <c r="K59" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L59" s="22"/>
       <c r="M59" s="22"/>
       <c r="N59" s="22"/>
       <c r="O59" s="23"/>
       <c r="P59" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q59" s="22"/>
       <c r="R59" s="22"/>
@@ -2496,21 +2517,21 @@
       <c r="D66" s="22"/>
       <c r="E66" s="23"/>
       <c r="F66" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G66" s="22"/>
       <c r="H66" s="22"/>
       <c r="I66" s="22"/>
       <c r="J66" s="23"/>
       <c r="K66" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L66" s="22"/>
       <c r="M66" s="22"/>
       <c r="N66" s="22"/>
       <c r="O66" s="23"/>
       <c r="P66" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q66" s="22"/>
       <c r="R66" s="22"/>
@@ -2665,508 +2686,489 @@
       </c>
     </row>
     <row r="76" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B76" s="13"/>
-      <c r="C76" s="13"/>
-      <c r="D76" s="13"/>
-      <c r="E76" s="14"/>
-      <c r="F76" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="G76" s="13"/>
-      <c r="H76" s="13"/>
-      <c r="I76" s="13"/>
-      <c r="J76" s="14"/>
-      <c r="K76" s="12"/>
-      <c r="L76" s="13"/>
-      <c r="M76" s="13"/>
-      <c r="N76" s="13"/>
-      <c r="O76" s="14"/>
-      <c r="P76" s="12" t="s">
+      <c r="A76" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B76" s="4"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G76" s="4"/>
+      <c r="H76" s="4"/>
+      <c r="I76" s="4"/>
+      <c r="J76" s="5"/>
+      <c r="K76" s="3"/>
+      <c r="L76" s="4"/>
+      <c r="M76" s="4"/>
+      <c r="N76" s="4"/>
+      <c r="O76" s="5"/>
+      <c r="P76" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Q76" s="13"/>
-      <c r="R76" s="13"/>
-      <c r="S76" s="13"/>
-      <c r="T76" s="14"/>
+      <c r="Q76" s="4"/>
+      <c r="R76" s="4"/>
+      <c r="S76" s="4"/>
+      <c r="T76" s="5"/>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A77" s="15"/>
-      <c r="B77" s="16"/>
-      <c r="C77" s="16"/>
-      <c r="D77" s="16"/>
-      <c r="E77" s="17"/>
-      <c r="F77" s="15"/>
-      <c r="G77" s="16"/>
-      <c r="H77" s="16"/>
-      <c r="I77" s="16"/>
-      <c r="J77" s="17"/>
-      <c r="K77" s="15"/>
-      <c r="L77" s="16"/>
-      <c r="M77" s="16"/>
-      <c r="N77" s="16"/>
-      <c r="O77" s="17"/>
-      <c r="P77" s="15"/>
-      <c r="Q77" s="16"/>
-      <c r="R77" s="16"/>
-      <c r="S77" s="16"/>
-      <c r="T77" s="17"/>
+      <c r="A77" s="6"/>
+      <c r="B77" s="7"/>
+      <c r="C77" s="7"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="7"/>
+      <c r="H77" s="7"/>
+      <c r="I77" s="7"/>
+      <c r="J77" s="8"/>
+      <c r="K77" s="6"/>
+      <c r="L77" s="7"/>
+      <c r="M77" s="7"/>
+      <c r="N77" s="7"/>
+      <c r="O77" s="8"/>
+      <c r="P77" s="6"/>
+      <c r="Q77" s="7"/>
+      <c r="R77" s="7"/>
+      <c r="S77" s="7"/>
+      <c r="T77" s="8"/>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A78" s="15"/>
-      <c r="B78" s="16"/>
-      <c r="C78" s="16"/>
-      <c r="D78" s="16"/>
-      <c r="E78" s="17"/>
-      <c r="F78" s="15"/>
-      <c r="G78" s="16"/>
-      <c r="H78" s="16"/>
-      <c r="I78" s="16"/>
-      <c r="J78" s="17"/>
-      <c r="K78" s="15"/>
-      <c r="L78" s="16"/>
-      <c r="M78" s="16"/>
-      <c r="N78" s="16"/>
-      <c r="O78" s="17"/>
-      <c r="P78" s="15"/>
-      <c r="Q78" s="16"/>
-      <c r="R78" s="16"/>
-      <c r="S78" s="16"/>
-      <c r="T78" s="17"/>
+      <c r="A78" s="6"/>
+      <c r="B78" s="7"/>
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="6"/>
+      <c r="G78" s="7"/>
+      <c r="H78" s="7"/>
+      <c r="I78" s="7"/>
+      <c r="J78" s="8"/>
+      <c r="K78" s="6"/>
+      <c r="L78" s="7"/>
+      <c r="M78" s="7"/>
+      <c r="N78" s="7"/>
+      <c r="O78" s="8"/>
+      <c r="P78" s="6"/>
+      <c r="Q78" s="7"/>
+      <c r="R78" s="7"/>
+      <c r="S78" s="7"/>
+      <c r="T78" s="8"/>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A79" s="15"/>
-      <c r="B79" s="16"/>
-      <c r="C79" s="16"/>
-      <c r="D79" s="16"/>
-      <c r="E79" s="17"/>
-      <c r="F79" s="15"/>
-      <c r="G79" s="16"/>
-      <c r="H79" s="16"/>
-      <c r="I79" s="16"/>
-      <c r="J79" s="17"/>
-      <c r="K79" s="15"/>
-      <c r="L79" s="16"/>
-      <c r="M79" s="16"/>
-      <c r="N79" s="16"/>
-      <c r="O79" s="17"/>
-      <c r="P79" s="15"/>
-      <c r="Q79" s="16"/>
-      <c r="R79" s="16"/>
-      <c r="S79" s="16"/>
-      <c r="T79" s="17"/>
+      <c r="A79" s="6"/>
+      <c r="B79" s="7"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="6"/>
+      <c r="G79" s="7"/>
+      <c r="H79" s="7"/>
+      <c r="I79" s="7"/>
+      <c r="J79" s="8"/>
+      <c r="K79" s="6"/>
+      <c r="L79" s="7"/>
+      <c r="M79" s="7"/>
+      <c r="N79" s="7"/>
+      <c r="O79" s="8"/>
+      <c r="P79" s="6"/>
+      <c r="Q79" s="7"/>
+      <c r="R79" s="7"/>
+      <c r="S79" s="7"/>
+      <c r="T79" s="8"/>
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A80" s="15"/>
-      <c r="B80" s="16"/>
-      <c r="C80" s="16"/>
-      <c r="D80" s="16"/>
-      <c r="E80" s="17"/>
-      <c r="F80" s="15"/>
-      <c r="G80" s="16"/>
-      <c r="H80" s="16"/>
-      <c r="I80" s="16"/>
-      <c r="J80" s="17"/>
-      <c r="K80" s="15"/>
-      <c r="L80" s="16"/>
-      <c r="M80" s="16"/>
-      <c r="N80" s="16"/>
-      <c r="O80" s="17"/>
-      <c r="P80" s="15"/>
-      <c r="Q80" s="16"/>
-      <c r="R80" s="16"/>
-      <c r="S80" s="16"/>
-      <c r="T80" s="17"/>
+      <c r="A80" s="6"/>
+      <c r="B80" s="7"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="6"/>
+      <c r="G80" s="7"/>
+      <c r="H80" s="7"/>
+      <c r="I80" s="7"/>
+      <c r="J80" s="8"/>
+      <c r="K80" s="6"/>
+      <c r="L80" s="7"/>
+      <c r="M80" s="7"/>
+      <c r="N80" s="7"/>
+      <c r="O80" s="8"/>
+      <c r="P80" s="6"/>
+      <c r="Q80" s="7"/>
+      <c r="R80" s="7"/>
+      <c r="S80" s="7"/>
+      <c r="T80" s="8"/>
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A81" s="15"/>
-      <c r="B81" s="16"/>
-      <c r="C81" s="16"/>
-      <c r="D81" s="16"/>
-      <c r="E81" s="17"/>
-      <c r="F81" s="15"/>
-      <c r="G81" s="16"/>
-      <c r="H81" s="16"/>
-      <c r="I81" s="16"/>
-      <c r="J81" s="17"/>
-      <c r="K81" s="15"/>
-      <c r="L81" s="16"/>
-      <c r="M81" s="16"/>
-      <c r="N81" s="16"/>
-      <c r="O81" s="17"/>
-      <c r="P81" s="15"/>
-      <c r="Q81" s="16"/>
-      <c r="R81" s="16"/>
-      <c r="S81" s="16"/>
-      <c r="T81" s="17"/>
+      <c r="A81" s="6"/>
+      <c r="B81" s="7"/>
+      <c r="C81" s="7"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="6"/>
+      <c r="G81" s="7"/>
+      <c r="H81" s="7"/>
+      <c r="I81" s="7"/>
+      <c r="J81" s="8"/>
+      <c r="K81" s="6"/>
+      <c r="L81" s="7"/>
+      <c r="M81" s="7"/>
+      <c r="N81" s="7"/>
+      <c r="O81" s="8"/>
+      <c r="P81" s="6"/>
+      <c r="Q81" s="7"/>
+      <c r="R81" s="7"/>
+      <c r="S81" s="7"/>
+      <c r="T81" s="8"/>
     </row>
     <row r="82" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="18"/>
-      <c r="B82" s="19"/>
-      <c r="C82" s="19"/>
-      <c r="D82" s="19"/>
-      <c r="E82" s="20"/>
-      <c r="F82" s="18"/>
-      <c r="G82" s="19"/>
-      <c r="H82" s="19"/>
-      <c r="I82" s="19"/>
-      <c r="J82" s="20"/>
-      <c r="K82" s="18"/>
-      <c r="L82" s="19"/>
-      <c r="M82" s="19"/>
-      <c r="N82" s="19"/>
-      <c r="O82" s="20"/>
-      <c r="P82" s="18"/>
-      <c r="Q82" s="19"/>
-      <c r="R82" s="19"/>
-      <c r="S82" s="19"/>
-      <c r="T82" s="20"/>
+      <c r="A82" s="9"/>
+      <c r="B82" s="10"/>
+      <c r="C82" s="10"/>
+      <c r="D82" s="10"/>
+      <c r="E82" s="11"/>
+      <c r="F82" s="9"/>
+      <c r="G82" s="10"/>
+      <c r="H82" s="10"/>
+      <c r="I82" s="10"/>
+      <c r="J82" s="11"/>
+      <c r="K82" s="9"/>
+      <c r="L82" s="10"/>
+      <c r="M82" s="10"/>
+      <c r="N82" s="10"/>
+      <c r="O82" s="11"/>
+      <c r="P82" s="9"/>
+      <c r="Q82" s="10"/>
+      <c r="R82" s="10"/>
+      <c r="S82" s="10"/>
+      <c r="T82" s="11"/>
     </row>
     <row r="83" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B83" s="4"/>
-      <c r="C83" s="4"/>
-      <c r="D83" s="4"/>
-      <c r="E83" s="5"/>
-      <c r="F83" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G83" s="4"/>
-      <c r="H83" s="4"/>
-      <c r="I83" s="4"/>
-      <c r="J83" s="5"/>
-      <c r="K83" s="3"/>
-      <c r="L83" s="4"/>
-      <c r="M83" s="4"/>
-      <c r="N83" s="4"/>
-      <c r="O83" s="5"/>
-      <c r="P83" s="3"/>
-      <c r="Q83" s="4"/>
-      <c r="R83" s="4"/>
-      <c r="S83" s="4"/>
-      <c r="T83" s="5"/>
+      <c r="A83" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B83" s="13"/>
+      <c r="C83" s="13"/>
+      <c r="D83" s="13"/>
+      <c r="E83" s="14"/>
+      <c r="F83" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G83" s="13"/>
+      <c r="H83" s="13"/>
+      <c r="I83" s="13"/>
+      <c r="J83" s="14"/>
+      <c r="K83" s="12"/>
+      <c r="L83" s="13"/>
+      <c r="M83" s="13"/>
+      <c r="N83" s="13"/>
+      <c r="O83" s="14"/>
+      <c r="P83" s="12"/>
+      <c r="Q83" s="13"/>
+      <c r="R83" s="13"/>
+      <c r="S83" s="13"/>
+      <c r="T83" s="14"/>
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A84" s="6"/>
-      <c r="B84" s="7"/>
-      <c r="C84" s="7"/>
-      <c r="D84" s="7"/>
-      <c r="E84" s="8"/>
-      <c r="F84" s="6"/>
-      <c r="G84" s="7"/>
-      <c r="H84" s="7"/>
-      <c r="I84" s="7"/>
-      <c r="J84" s="8"/>
-      <c r="K84" s="6"/>
-      <c r="L84" s="7"/>
-      <c r="M84" s="7"/>
-      <c r="N84" s="7"/>
-      <c r="O84" s="8"/>
-      <c r="P84" s="6"/>
-      <c r="Q84" s="7"/>
-      <c r="R84" s="7"/>
-      <c r="S84" s="7"/>
-      <c r="T84" s="8"/>
+      <c r="A84" s="15"/>
+      <c r="B84" s="16"/>
+      <c r="C84" s="16"/>
+      <c r="D84" s="16"/>
+      <c r="E84" s="17"/>
+      <c r="F84" s="15"/>
+      <c r="G84" s="16"/>
+      <c r="H84" s="16"/>
+      <c r="I84" s="16"/>
+      <c r="J84" s="17"/>
+      <c r="K84" s="15"/>
+      <c r="L84" s="16"/>
+      <c r="M84" s="16"/>
+      <c r="N84" s="16"/>
+      <c r="O84" s="17"/>
+      <c r="P84" s="15"/>
+      <c r="Q84" s="16"/>
+      <c r="R84" s="16"/>
+      <c r="S84" s="16"/>
+      <c r="T84" s="17"/>
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A85" s="6"/>
-      <c r="B85" s="7"/>
-      <c r="C85" s="7"/>
-      <c r="D85" s="7"/>
-      <c r="E85" s="8"/>
-      <c r="F85" s="6"/>
-      <c r="G85" s="7"/>
-      <c r="H85" s="7"/>
-      <c r="I85" s="7"/>
-      <c r="J85" s="8"/>
-      <c r="K85" s="6"/>
-      <c r="L85" s="7"/>
-      <c r="M85" s="7"/>
-      <c r="N85" s="7"/>
-      <c r="O85" s="8"/>
-      <c r="P85" s="6"/>
-      <c r="Q85" s="7"/>
-      <c r="R85" s="7"/>
-      <c r="S85" s="7"/>
-      <c r="T85" s="8"/>
+      <c r="A85" s="15"/>
+      <c r="B85" s="16"/>
+      <c r="C85" s="16"/>
+      <c r="D85" s="16"/>
+      <c r="E85" s="17"/>
+      <c r="F85" s="15"/>
+      <c r="G85" s="16"/>
+      <c r="H85" s="16"/>
+      <c r="I85" s="16"/>
+      <c r="J85" s="17"/>
+      <c r="K85" s="15"/>
+      <c r="L85" s="16"/>
+      <c r="M85" s="16"/>
+      <c r="N85" s="16"/>
+      <c r="O85" s="17"/>
+      <c r="P85" s="15"/>
+      <c r="Q85" s="16"/>
+      <c r="R85" s="16"/>
+      <c r="S85" s="16"/>
+      <c r="T85" s="17"/>
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A86" s="6"/>
-      <c r="B86" s="7"/>
-      <c r="C86" s="7"/>
-      <c r="D86" s="7"/>
-      <c r="E86" s="8"/>
-      <c r="F86" s="6"/>
-      <c r="G86" s="7"/>
-      <c r="H86" s="7"/>
-      <c r="I86" s="7"/>
-      <c r="J86" s="8"/>
-      <c r="K86" s="6"/>
-      <c r="L86" s="7"/>
-      <c r="M86" s="7"/>
-      <c r="N86" s="7"/>
-      <c r="O86" s="8"/>
-      <c r="P86" s="6"/>
-      <c r="Q86" s="7"/>
-      <c r="R86" s="7"/>
-      <c r="S86" s="7"/>
-      <c r="T86" s="8"/>
+      <c r="A86" s="15"/>
+      <c r="B86" s="16"/>
+      <c r="C86" s="16"/>
+      <c r="D86" s="16"/>
+      <c r="E86" s="17"/>
+      <c r="F86" s="15"/>
+      <c r="G86" s="16"/>
+      <c r="H86" s="16"/>
+      <c r="I86" s="16"/>
+      <c r="J86" s="17"/>
+      <c r="K86" s="15"/>
+      <c r="L86" s="16"/>
+      <c r="M86" s="16"/>
+      <c r="N86" s="16"/>
+      <c r="O86" s="17"/>
+      <c r="P86" s="15"/>
+      <c r="Q86" s="16"/>
+      <c r="R86" s="16"/>
+      <c r="S86" s="16"/>
+      <c r="T86" s="17"/>
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A87" s="6"/>
-      <c r="B87" s="7"/>
-      <c r="C87" s="7"/>
-      <c r="D87" s="7"/>
-      <c r="E87" s="8"/>
-      <c r="F87" s="6"/>
-      <c r="G87" s="7"/>
-      <c r="H87" s="7"/>
-      <c r="I87" s="7"/>
-      <c r="J87" s="8"/>
-      <c r="K87" s="6"/>
-      <c r="L87" s="7"/>
-      <c r="M87" s="7"/>
-      <c r="N87" s="7"/>
-      <c r="O87" s="8"/>
-      <c r="P87" s="6"/>
-      <c r="Q87" s="7"/>
-      <c r="R87" s="7"/>
-      <c r="S87" s="7"/>
-      <c r="T87" s="8"/>
+      <c r="A87" s="15"/>
+      <c r="B87" s="16"/>
+      <c r="C87" s="16"/>
+      <c r="D87" s="16"/>
+      <c r="E87" s="17"/>
+      <c r="F87" s="15"/>
+      <c r="G87" s="16"/>
+      <c r="H87" s="16"/>
+      <c r="I87" s="16"/>
+      <c r="J87" s="17"/>
+      <c r="K87" s="15"/>
+      <c r="L87" s="16"/>
+      <c r="M87" s="16"/>
+      <c r="N87" s="16"/>
+      <c r="O87" s="17"/>
+      <c r="P87" s="15"/>
+      <c r="Q87" s="16"/>
+      <c r="R87" s="16"/>
+      <c r="S87" s="16"/>
+      <c r="T87" s="17"/>
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A88" s="6"/>
-      <c r="B88" s="7"/>
-      <c r="C88" s="7"/>
-      <c r="D88" s="7"/>
-      <c r="E88" s="8"/>
-      <c r="F88" s="6"/>
-      <c r="G88" s="7"/>
-      <c r="H88" s="7"/>
-      <c r="I88" s="7"/>
-      <c r="J88" s="8"/>
-      <c r="K88" s="6"/>
-      <c r="L88" s="7"/>
-      <c r="M88" s="7"/>
-      <c r="N88" s="7"/>
-      <c r="O88" s="8"/>
-      <c r="P88" s="6"/>
-      <c r="Q88" s="7"/>
-      <c r="R88" s="7"/>
-      <c r="S88" s="7"/>
-      <c r="T88" s="8"/>
+      <c r="A88" s="15"/>
+      <c r="B88" s="16"/>
+      <c r="C88" s="16"/>
+      <c r="D88" s="16"/>
+      <c r="E88" s="17"/>
+      <c r="F88" s="15"/>
+      <c r="G88" s="16"/>
+      <c r="H88" s="16"/>
+      <c r="I88" s="16"/>
+      <c r="J88" s="17"/>
+      <c r="K88" s="15"/>
+      <c r="L88" s="16"/>
+      <c r="M88" s="16"/>
+      <c r="N88" s="16"/>
+      <c r="O88" s="17"/>
+      <c r="P88" s="15"/>
+      <c r="Q88" s="16"/>
+      <c r="R88" s="16"/>
+      <c r="S88" s="16"/>
+      <c r="T88" s="17"/>
     </row>
     <row r="89" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="9"/>
-      <c r="B89" s="10"/>
-      <c r="C89" s="10"/>
-      <c r="D89" s="10"/>
-      <c r="E89" s="11"/>
-      <c r="F89" s="9"/>
-      <c r="G89" s="10"/>
-      <c r="H89" s="10"/>
-      <c r="I89" s="10"/>
-      <c r="J89" s="11"/>
-      <c r="K89" s="9"/>
-      <c r="L89" s="10"/>
-      <c r="M89" s="10"/>
-      <c r="N89" s="10"/>
-      <c r="O89" s="11"/>
-      <c r="P89" s="9"/>
-      <c r="Q89" s="10"/>
-      <c r="R89" s="10"/>
-      <c r="S89" s="10"/>
-      <c r="T89" s="11"/>
+      <c r="A89" s="18"/>
+      <c r="B89" s="19"/>
+      <c r="C89" s="19"/>
+      <c r="D89" s="19"/>
+      <c r="E89" s="20"/>
+      <c r="F89" s="18"/>
+      <c r="G89" s="19"/>
+      <c r="H89" s="19"/>
+      <c r="I89" s="19"/>
+      <c r="J89" s="20"/>
+      <c r="K89" s="18"/>
+      <c r="L89" s="19"/>
+      <c r="M89" s="19"/>
+      <c r="N89" s="19"/>
+      <c r="O89" s="20"/>
+      <c r="P89" s="18"/>
+      <c r="Q89" s="19"/>
+      <c r="R89" s="19"/>
+      <c r="S89" s="19"/>
+      <c r="T89" s="20"/>
     </row>
     <row r="90" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="3"/>
-      <c r="B90" s="4"/>
-      <c r="C90" s="4"/>
-      <c r="D90" s="4"/>
-      <c r="E90" s="5"/>
-      <c r="F90" s="3"/>
-      <c r="G90" s="4"/>
-      <c r="H90" s="4"/>
-      <c r="I90" s="4"/>
-      <c r="J90" s="5"/>
-      <c r="K90" s="3"/>
-      <c r="L90" s="4"/>
-      <c r="M90" s="4"/>
-      <c r="N90" s="4"/>
-      <c r="O90" s="5"/>
-      <c r="P90" s="3"/>
-      <c r="Q90" s="4"/>
-      <c r="R90" s="4"/>
-      <c r="S90" s="4"/>
-      <c r="T90" s="5"/>
+      <c r="A90" s="12"/>
+      <c r="B90" s="13"/>
+      <c r="C90" s="13"/>
+      <c r="D90" s="13"/>
+      <c r="E90" s="14"/>
+      <c r="F90" s="12"/>
+      <c r="G90" s="13"/>
+      <c r="H90" s="13"/>
+      <c r="I90" s="13"/>
+      <c r="J90" s="14"/>
+      <c r="K90" s="12"/>
+      <c r="L90" s="13"/>
+      <c r="M90" s="13"/>
+      <c r="N90" s="13"/>
+      <c r="O90" s="14"/>
+      <c r="P90" s="12"/>
+      <c r="Q90" s="13"/>
+      <c r="R90" s="13"/>
+      <c r="S90" s="13"/>
+      <c r="T90" s="14"/>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A91" s="6"/>
-      <c r="B91" s="7"/>
-      <c r="C91" s="7"/>
-      <c r="D91" s="7"/>
-      <c r="E91" s="8"/>
-      <c r="F91" s="6"/>
-      <c r="G91" s="7"/>
-      <c r="H91" s="7"/>
-      <c r="I91" s="7"/>
-      <c r="J91" s="8"/>
-      <c r="K91" s="6"/>
-      <c r="L91" s="7"/>
-      <c r="M91" s="7"/>
-      <c r="N91" s="7"/>
-      <c r="O91" s="8"/>
-      <c r="P91" s="6"/>
-      <c r="Q91" s="7"/>
-      <c r="R91" s="7"/>
-      <c r="S91" s="7"/>
-      <c r="T91" s="8"/>
+      <c r="A91" s="15"/>
+      <c r="B91" s="16"/>
+      <c r="C91" s="16"/>
+      <c r="D91" s="16"/>
+      <c r="E91" s="17"/>
+      <c r="F91" s="15"/>
+      <c r="G91" s="16"/>
+      <c r="H91" s="16"/>
+      <c r="I91" s="16"/>
+      <c r="J91" s="17"/>
+      <c r="K91" s="15"/>
+      <c r="L91" s="16"/>
+      <c r="M91" s="16"/>
+      <c r="N91" s="16"/>
+      <c r="O91" s="17"/>
+      <c r="P91" s="15"/>
+      <c r="Q91" s="16"/>
+      <c r="R91" s="16"/>
+      <c r="S91" s="16"/>
+      <c r="T91" s="17"/>
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A92" s="6"/>
-      <c r="B92" s="7"/>
-      <c r="C92" s="7"/>
-      <c r="D92" s="7"/>
-      <c r="E92" s="8"/>
-      <c r="F92" s="6"/>
-      <c r="G92" s="7"/>
-      <c r="H92" s="7"/>
-      <c r="I92" s="7"/>
-      <c r="J92" s="8"/>
-      <c r="K92" s="6"/>
-      <c r="L92" s="7"/>
-      <c r="M92" s="7"/>
-      <c r="N92" s="7"/>
-      <c r="O92" s="8"/>
-      <c r="P92" s="6"/>
-      <c r="Q92" s="7"/>
-      <c r="R92" s="7"/>
-      <c r="S92" s="7"/>
-      <c r="T92" s="8"/>
+      <c r="A92" s="15"/>
+      <c r="B92" s="16"/>
+      <c r="C92" s="16"/>
+      <c r="D92" s="16"/>
+      <c r="E92" s="17"/>
+      <c r="F92" s="15"/>
+      <c r="G92" s="16"/>
+      <c r="H92" s="16"/>
+      <c r="I92" s="16"/>
+      <c r="J92" s="17"/>
+      <c r="K92" s="15"/>
+      <c r="L92" s="16"/>
+      <c r="M92" s="16"/>
+      <c r="N92" s="16"/>
+      <c r="O92" s="17"/>
+      <c r="P92" s="15"/>
+      <c r="Q92" s="16"/>
+      <c r="R92" s="16"/>
+      <c r="S92" s="16"/>
+      <c r="T92" s="17"/>
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A93" s="6"/>
-      <c r="B93" s="7"/>
-      <c r="C93" s="7"/>
-      <c r="D93" s="7"/>
-      <c r="E93" s="8"/>
-      <c r="F93" s="6"/>
-      <c r="G93" s="7"/>
-      <c r="H93" s="7"/>
-      <c r="I93" s="7"/>
-      <c r="J93" s="8"/>
-      <c r="K93" s="6"/>
-      <c r="L93" s="7"/>
-      <c r="M93" s="7"/>
-      <c r="N93" s="7"/>
-      <c r="O93" s="8"/>
-      <c r="P93" s="6"/>
-      <c r="Q93" s="7"/>
-      <c r="R93" s="7"/>
-      <c r="S93" s="7"/>
-      <c r="T93" s="8"/>
+      <c r="A93" s="15"/>
+      <c r="B93" s="16"/>
+      <c r="C93" s="16"/>
+      <c r="D93" s="16"/>
+      <c r="E93" s="17"/>
+      <c r="F93" s="15"/>
+      <c r="G93" s="16"/>
+      <c r="H93" s="16"/>
+      <c r="I93" s="16"/>
+      <c r="J93" s="17"/>
+      <c r="K93" s="15"/>
+      <c r="L93" s="16"/>
+      <c r="M93" s="16"/>
+      <c r="N93" s="16"/>
+      <c r="O93" s="17"/>
+      <c r="P93" s="15"/>
+      <c r="Q93" s="16"/>
+      <c r="R93" s="16"/>
+      <c r="S93" s="16"/>
+      <c r="T93" s="17"/>
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A94" s="6"/>
-      <c r="B94" s="7"/>
-      <c r="C94" s="7"/>
-      <c r="D94" s="7"/>
-      <c r="E94" s="8"/>
-      <c r="F94" s="6"/>
-      <c r="G94" s="7"/>
-      <c r="H94" s="7"/>
-      <c r="I94" s="7"/>
-      <c r="J94" s="8"/>
-      <c r="K94" s="6"/>
-      <c r="L94" s="7"/>
-      <c r="M94" s="7"/>
-      <c r="N94" s="7"/>
-      <c r="O94" s="8"/>
-      <c r="P94" s="6"/>
-      <c r="Q94" s="7"/>
-      <c r="R94" s="7"/>
-      <c r="S94" s="7"/>
-      <c r="T94" s="8"/>
+      <c r="A94" s="15"/>
+      <c r="B94" s="16"/>
+      <c r="C94" s="16"/>
+      <c r="D94" s="16"/>
+      <c r="E94" s="17"/>
+      <c r="F94" s="15"/>
+      <c r="G94" s="16"/>
+      <c r="H94" s="16"/>
+      <c r="I94" s="16"/>
+      <c r="J94" s="17"/>
+      <c r="K94" s="15"/>
+      <c r="L94" s="16"/>
+      <c r="M94" s="16"/>
+      <c r="N94" s="16"/>
+      <c r="O94" s="17"/>
+      <c r="P94" s="15"/>
+      <c r="Q94" s="16"/>
+      <c r="R94" s="16"/>
+      <c r="S94" s="16"/>
+      <c r="T94" s="17"/>
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A95" s="6"/>
-      <c r="B95" s="7"/>
-      <c r="C95" s="7"/>
-      <c r="D95" s="7"/>
-      <c r="E95" s="8"/>
-      <c r="F95" s="6"/>
-      <c r="G95" s="7"/>
-      <c r="H95" s="7"/>
-      <c r="I95" s="7"/>
-      <c r="J95" s="8"/>
-      <c r="K95" s="6"/>
-      <c r="L95" s="7"/>
-      <c r="M95" s="7"/>
-      <c r="N95" s="7"/>
-      <c r="O95" s="8"/>
-      <c r="P95" s="6"/>
-      <c r="Q95" s="7"/>
-      <c r="R95" s="7"/>
-      <c r="S95" s="7"/>
-      <c r="T95" s="8"/>
+      <c r="A95" s="15"/>
+      <c r="B95" s="16"/>
+      <c r="C95" s="16"/>
+      <c r="D95" s="16"/>
+      <c r="E95" s="17"/>
+      <c r="F95" s="15"/>
+      <c r="G95" s="16"/>
+      <c r="H95" s="16"/>
+      <c r="I95" s="16"/>
+      <c r="J95" s="17"/>
+      <c r="K95" s="15"/>
+      <c r="L95" s="16"/>
+      <c r="M95" s="16"/>
+      <c r="N95" s="16"/>
+      <c r="O95" s="17"/>
+      <c r="P95" s="15"/>
+      <c r="Q95" s="16"/>
+      <c r="R95" s="16"/>
+      <c r="S95" s="16"/>
+      <c r="T95" s="17"/>
     </row>
     <row r="96" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="9"/>
-      <c r="B96" s="10"/>
-      <c r="C96" s="10"/>
-      <c r="D96" s="10"/>
-      <c r="E96" s="11"/>
-      <c r="F96" s="9"/>
-      <c r="G96" s="10"/>
-      <c r="H96" s="10"/>
-      <c r="I96" s="10"/>
-      <c r="J96" s="11"/>
-      <c r="K96" s="9"/>
-      <c r="L96" s="10"/>
-      <c r="M96" s="10"/>
-      <c r="N96" s="10"/>
-      <c r="O96" s="11"/>
-      <c r="P96" s="9"/>
-      <c r="Q96" s="10"/>
-      <c r="R96" s="10"/>
-      <c r="S96" s="10"/>
-      <c r="T96" s="11"/>
+      <c r="A96" s="18"/>
+      <c r="B96" s="19"/>
+      <c r="C96" s="19"/>
+      <c r="D96" s="19"/>
+      <c r="E96" s="20"/>
+      <c r="F96" s="18"/>
+      <c r="G96" s="19"/>
+      <c r="H96" s="19"/>
+      <c r="I96" s="19"/>
+      <c r="J96" s="20"/>
+      <c r="K96" s="18"/>
+      <c r="L96" s="19"/>
+      <c r="M96" s="19"/>
+      <c r="N96" s="19"/>
+      <c r="O96" s="20"/>
+      <c r="P96" s="18"/>
+      <c r="Q96" s="19"/>
+      <c r="R96" s="19"/>
+      <c r="S96" s="19"/>
+      <c r="T96" s="20"/>
     </row>
     <row r="97" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="A76:E82"/>
-    <mergeCell ref="A83:E89"/>
-    <mergeCell ref="A90:E96"/>
-    <mergeCell ref="F76:J82"/>
-    <mergeCell ref="F83:J89"/>
-    <mergeCell ref="F90:J96"/>
-    <mergeCell ref="A59:E65"/>
-    <mergeCell ref="A66:E72"/>
-    <mergeCell ref="F59:J65"/>
-    <mergeCell ref="F66:J72"/>
-    <mergeCell ref="K59:O65"/>
-    <mergeCell ref="K66:O72"/>
-    <mergeCell ref="A10:E16"/>
-    <mergeCell ref="A17:E23"/>
-    <mergeCell ref="F3:J9"/>
-    <mergeCell ref="F10:J16"/>
-    <mergeCell ref="F17:J23"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="A3:E9"/>
-    <mergeCell ref="K3:O9"/>
-    <mergeCell ref="K10:O16"/>
-    <mergeCell ref="K17:O23"/>
-    <mergeCell ref="P3:T9"/>
-    <mergeCell ref="P10:T16"/>
-    <mergeCell ref="P17:T23"/>
+    <mergeCell ref="K90:O96"/>
+    <mergeCell ref="P76:T82"/>
+    <mergeCell ref="P83:T89"/>
+    <mergeCell ref="P90:T96"/>
+    <mergeCell ref="K41:O47"/>
+    <mergeCell ref="P59:T65"/>
+    <mergeCell ref="P66:T72"/>
+    <mergeCell ref="K76:O82"/>
+    <mergeCell ref="K83:O89"/>
     <mergeCell ref="P27:T33"/>
     <mergeCell ref="P34:T40"/>
     <mergeCell ref="P41:T47"/>
@@ -3182,15 +3184,34 @@
     <mergeCell ref="F41:J47"/>
     <mergeCell ref="K27:O33"/>
     <mergeCell ref="K34:O40"/>
-    <mergeCell ref="K90:O96"/>
-    <mergeCell ref="P76:T82"/>
-    <mergeCell ref="P83:T89"/>
-    <mergeCell ref="P90:T96"/>
-    <mergeCell ref="K41:O47"/>
-    <mergeCell ref="P59:T65"/>
-    <mergeCell ref="P66:T72"/>
-    <mergeCell ref="K76:O82"/>
-    <mergeCell ref="K83:O89"/>
+    <mergeCell ref="K10:O16"/>
+    <mergeCell ref="K17:O23"/>
+    <mergeCell ref="P3:T9"/>
+    <mergeCell ref="P10:T16"/>
+    <mergeCell ref="P17:T23"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="A3:E9"/>
+    <mergeCell ref="K3:O9"/>
+    <mergeCell ref="A10:E16"/>
+    <mergeCell ref="A17:E23"/>
+    <mergeCell ref="F3:J9"/>
+    <mergeCell ref="F10:J16"/>
+    <mergeCell ref="F17:J23"/>
+    <mergeCell ref="A59:E65"/>
+    <mergeCell ref="A66:E72"/>
+    <mergeCell ref="F59:J65"/>
+    <mergeCell ref="F66:J72"/>
+    <mergeCell ref="K59:O65"/>
+    <mergeCell ref="K66:O72"/>
+    <mergeCell ref="A76:E82"/>
+    <mergeCell ref="A83:E89"/>
+    <mergeCell ref="A90:E96"/>
+    <mergeCell ref="F76:J82"/>
+    <mergeCell ref="F83:J89"/>
+    <mergeCell ref="F90:J96"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
